--- a/output/charts.xlsx
+++ b/output/charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awby\github\school-cuts\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DA3D67-D7BE-440C-BD0E-480C2BF9BBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBFE08E-371C-46A5-8425-53C541B5594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C26A289C-3423-40F7-ADA5-9942CC10928D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{C26A289C-3423-40F7-ADA5-9942CC10928D}"/>
   </bookViews>
   <sheets>
     <sheet name="phase data" sheetId="1" r:id="rId1"/>
@@ -686,9 +686,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -707,11 +704,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,11 +763,7 @@
               <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Change in spending power with 2015-16 (%)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
+              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="2000">
               <a:solidFill>
@@ -1234,7 +1230,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'phase data'!$A$4</c15:sqref>
@@ -1261,7 +1257,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
@@ -1290,7 +1286,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'phase data'!$B$4:$F$4</c15:sqref>
@@ -1318,7 +1314,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-47A5-4A48-8A13-EF1B4F2FA295}"/>
                   </c:ext>
@@ -1518,6 +1514,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1849,7 +1867,7 @@
               <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Change in real terms per pupil funding with 2015-16 </a:t>
+              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
@@ -1868,6 +1886,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23125877018088534"/>
+          <c:y val="1.0440735507889168E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2472,7 +2498,7 @@
               <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Change in real terms per pupil funding with 2015-16 </a:t>
+              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -4177,7 +4203,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1729F68F-E1F4-4593-81C9-BE923D09C9AC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4637,25 +4663,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57911CC4-A68B-4D83-B9D2-99C08D226D6D}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
-    <col min="2" max="6" width="10.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
+    <col min="2" max="6" width="10.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4681,19 +4707,19 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>-9.0402522890201453E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>-0.12923400553401579</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>-0.15571109672604089</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>-0.11242841419754231</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>-6.771658035202377E-2</v>
       </c>
     </row>
@@ -4701,19 +4727,19 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>-4.673656630936196E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>-7.9196185896571847E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>-0.1114181862483602</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>-0.1132906982013384</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>-0.10573592949532119</v>
       </c>
     </row>
@@ -4721,19 +4747,19 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>-6.7918521578482438E-2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>-0.12885179205321931</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>-0.1289989429161805</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>-0.17305321221324529</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>-0.1176611902853099</v>
       </c>
     </row>
@@ -4741,19 +4767,19 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>-3.7960131391078011E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>-4.5305337079191932E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>-4.3947795211552447E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>-5.0486825169103078E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>-2.4048446488107781E-2</v>
       </c>
     </row>
@@ -4761,19 +4787,19 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>-3.2238706712261589E-2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>-6.0201415802036751E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>-7.0834081543676986E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>-7.4029814891239498E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>-5.2533082542794207E-2</v>
       </c>
     </row>
@@ -4781,19 +4807,19 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>-3.8339279169443019E-2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>-4.8201812176985943E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>-6.395207958394844E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>-7.7818685635984153E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>-8.1804319228364064E-2</v>
       </c>
     </row>
@@ -4813,2154 +4839,2154 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>157.4716076148834</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>2.6135478070946409E-2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>17681778.19684099</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>211.1169606251178</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>3.533807844806125E-2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>14448211.434301186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>84.597986882517944</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>1.409273938450784E-2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>8162986.6512744799</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>68.381242074355214</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>1.0879146730068401E-2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>6823627.3841157584</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>228.8013595030898</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>3.2753302787035483E-2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>6169971.8610400707</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>215.21642359696031</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>3.6796375659099663E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>5302932.6774291024</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>177.77548130168819</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>2.8014334924267189E-2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>5123756.034336606</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>54.750241863176598</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>9.2479157476836882E-3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>4617361.6475309981</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>127.0547582309009</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>2.1190550269249101E-2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>4036212.0321001443</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>64.774447776082525</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>9.1210908202012941E-3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>3464007.9181693411</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>161.7078605429397</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>2.5345213546621451E-2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>2946398.0730226329</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>53.471073062926727</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>8.0394661192615402E-3</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>2878695.4249522546</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>73.618192745798297</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>1.240569703391148E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>2714818.0938868038</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>141.44525020824949</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>2.4643554952925809E-2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>2305274.68789405</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>104.4487813872711</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>1.509814378885865E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>1877884.6405617471</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>21.460027705827091</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>3.5308317028117648E-3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>1804380.5895336478</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>47.849380373965687</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>7.541132532348005E-3</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>1774733.5180703874</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>64.953233083438136</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>9.8312860685432213E-3</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>1602201.4004691686</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>60.922268730129872</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>1.0336324343867659E-2</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>1557630.1057575955</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>16.37746508801774</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>2.805911356044577E-3</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>653919.4260343723</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>19.060065573427892</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>2.9900626165222381E-3</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>496886.37946647842</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>5.8312261739802116</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>8.4692460039814677E-4</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>129945.95967406202</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>215.71303009085571</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>1.8383899094427392E-2</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>55869.674793531631</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>-335.51356560044218</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>-3.2077533971400903E-2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>-90588.662712119389</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>-66.834455190382869</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>-1.076236547062936E-2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>-378082.51301199588</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>-15.326818517935861</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <v>-2.5452010757947008E-3</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>-451129.57625692413</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>-20.11148509676968</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>-3.2247186701489521E-3</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>-534080.5982298156</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>-30.95326643339558</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>-4.2986664010045139E-3</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>-622083.27214516769</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>-17.75137299089965</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>-2.954784976943237E-3</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>-785001.21640356432</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>-32.988733816830973</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>-5.2312847223517922E-3</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>-956623.79758737294</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>-39.784800587216523</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>-6.3675940324474656E-3</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>-1172716.6745090878</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>-59.144832001163188</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <v>-9.3667837025840361E-3</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>-1216047.3183599156</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>-41.24741932654797</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="11">
         <v>-6.8969297215628611E-3</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>-1480576.1167264394</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>-31.316033788970341</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <v>-5.2582015409199379E-3</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>-2068095.2134067067</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <v>-62.791985662831387</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>-9.4319513623714046E-3</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>-2250872.9140626853</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <v>-155.63590889441181</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>-2.3145739305083349E-2</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>-2299131.4641426983</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="10">
         <v>-49.57061333233105</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <v>-8.2004342673667185E-3</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>-2346697.620459218</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>-83.943661520519527</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>-1.296521068675038E-2</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>-2576272.9438955043</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>-56.919626838701333</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="11">
         <v>-8.7506516684798807E-3</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>-2640473.0292339353</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>-73.531705407456684</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="11">
         <v>-1.118901449335841E-2</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>-2813175.985478478</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>-64.047585780977897</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="11">
         <v>-9.1014706260710287E-3</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>-3251311.6445855619</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>-111.550714103294</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="11">
         <v>-1.8241135585391529E-2</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>-3542348.7017071526</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="10">
         <v>-41.386916541917337</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="11">
         <v>-7.0466760748665314E-3</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>-3888528.4371541142</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="10">
         <v>-44.269902816958172</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="11">
         <v>-7.1922195897854424E-3</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>-3903078.1168085258</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="10">
         <v>-196.70064930578789</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="11">
         <v>-2.9316505187265921E-2</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>-3908048.500407394</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="10">
         <v>-105.3696192474854</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="11">
         <v>-1.519344864176164E-2</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>-3957419.474887433</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="10">
         <v>-124.079231315367</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="11">
         <v>-1.9256240338729299E-2</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>-4001679.2891519009</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>-103.92172912136451</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="11">
         <v>-1.4186270343902191E-2</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>-4263285.0154748578</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="10">
         <v>-87.661465398732616</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="11">
         <v>-1.222256956039613E-2</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>-4454210.5491077024</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="10">
         <v>-212.88620001593429</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="11">
         <v>-3.1351272304295907E-2</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>-4462946.2971340464</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="10">
         <v>-191.77350535611089</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="11">
         <v>-3.0077243840369031E-2</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>-4515786.6173730213</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="10">
         <v>-126.70673980818989</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="11">
         <v>-1.9738382116971431E-2</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>-4541803.0884245671</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="10">
         <v>-204.80804311058179</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="11">
         <v>-3.2080686803145242E-2</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>-4610331.4544407511</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>-75.82157279801504</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="11">
         <v>-1.2368163960417729E-2</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>-4670040.2225617412</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="10">
         <v>-201.32346563275951</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="11">
         <v>-3.1559079207472363E-2</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>-4716706.8145771064</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <v>-333.03008648875311</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="11">
         <v>-4.7337551578839121E-2</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>-4872230.1653304584</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="10">
         <v>-140.19491334321989</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="11">
         <v>-2.0336584067692561E-2</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>-5079892.5875349017</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="10">
         <v>-120.1135267855752</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="11">
         <v>-1.8093984193141122E-2</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>-5144822.6928065429</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="10">
         <v>-216.7287196486277</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="11">
         <v>-3.2231763090909797E-2</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>-5402071.7016018694</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="10">
         <v>-247.4789857790656</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="11">
         <v>-3.6545083442229058E-2</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>-5412736.637466833</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="10">
         <v>-194.08563966921881</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="11">
         <v>-2.9193485799833611E-2</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>-5515040.4940206874</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>-151.52577231151921</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="11">
         <v>-2.237896461931721E-2</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <v>-6116943.9024437191</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="10">
         <v>-93.50607032764492</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="11">
         <v>-1.4663135020868469E-2</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>-6184023.9611187968</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="10">
         <v>-165.2719126338188</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="11">
         <v>-2.497535170854415E-2</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>-6190755.303437585</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="10">
         <v>-124.6435661960159</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="11">
         <v>-1.8642744447367691E-2</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>-6224575.052262838</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="10">
         <v>-272.67502659573069</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="11">
         <v>-2.8891997499348902E-2</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>-6250529.6346539343</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="10">
         <v>-142.24557064516191</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="11">
         <v>-2.303983890536487E-2</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>-6264708.299568898</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="10">
         <v>-72.958264515096744</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="11">
         <v>-1.2150304129348481E-2</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>-6355066.1097197598</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="10">
         <v>-97.821989501906501</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="11">
         <v>-1.585187811024891E-2</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>-6574077.8934808755</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="10">
         <v>-134.64797311456189</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="11">
         <v>-2.043267274909033E-2</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>-6625757.4610213619</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="10">
         <v>-195.47762599377171</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="11">
         <v>-3.2558104713215519E-2</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>-6950597.9474605406</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="10">
         <v>-181.11467325946251</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="11">
         <v>-2.7066286772823859E-2</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>-7059397.1769706998</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="10">
         <v>-438.05673956016562</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="11">
         <v>-6.6447763741735555E-2</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>-7314014.3520663055</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="10">
         <v>-276.55899373637573</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="11">
         <v>-4.2256143109782318E-2</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>-7360064.5003061676</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="10">
         <v>-285.27304617957452</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="11">
         <v>-4.7868430646109017E-2</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <v>-7362041.5027562799</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="10">
         <v>-94.180644705677878</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="11">
         <v>-1.533111556518574E-2</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>-7508269.3572260514</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="10">
         <v>-137.91957314381759</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="11">
         <v>-2.1224922543040651E-2</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="7">
         <v>-7701842.7230702052</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="10">
         <v>-193.16817796545729</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="11">
         <v>-3.2468154267556337E-2</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>-7718324.3028767938</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="10">
         <v>-263.77183013384001</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="11">
         <v>-3.9912158066605197E-2</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="7">
         <v>-7943224.892650458</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="10">
         <v>-311.50397143138798</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="11">
         <v>-4.7270497010906243E-2</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>-8002069.7701152097</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="10">
         <v>-449.09528803481498</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="11">
         <v>-6.19106580050931E-2</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <v>-8591417.4077500273</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="10">
         <v>-203.96010486389599</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="11">
         <v>-2.999821212616172E-2</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="7">
         <v>-8701957.8740181234</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="10">
         <v>-446.33610795728151</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="11">
         <v>-5.8283270916916867E-2</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <v>-8949262.1325974725</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="10">
         <v>-227.62175752209529</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="11">
         <v>-3.4442900710277113E-2</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>-9065491.7368324902</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="10">
         <v>-238.85968667341879</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="11">
         <v>-3.168479914847433E-2</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="7">
         <v>-9091119.1046336554</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="10">
         <v>-134.20154349405951</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="11">
         <v>-2.0585154539684569E-2</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="7">
         <v>-9314459.4285204411</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="10">
         <v>-177.35800540678159</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="11">
         <v>-2.9592930305107231E-2</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>-9439879.8377759494</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="10">
         <v>-274.66662639613702</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="11">
         <v>-4.0839130773677068E-2</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>-9491242.6084317137</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="10">
         <v>-282.4431910873991</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="11">
         <v>-4.1063750473939183E-2</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <v>-9687236.5679156147</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="10">
         <v>-232.44681056379071</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="11">
         <v>-3.6954348137252513E-2</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="7">
         <v>-9819366.842051493</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="10">
         <v>-93.309947651737275</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="11">
         <v>-1.6001439596502239E-2</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="7">
         <v>-10047101.958426986</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="10">
         <v>-486.81790086842187</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="11">
         <v>-6.8745179276333279E-2</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="7">
         <v>-10483623.495201465</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="10">
         <v>-304.08954460427498</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="11">
         <v>-4.6324240392847098E-2</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="7">
         <v>-10562550.331829492</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="10">
         <v>-165.2284718679648</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="11">
         <v>-2.6460936539087761E-2</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="7">
         <v>-10666571.84414427</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B96" s="12">
+      <c r="B96" s="10">
         <v>-234.40021981966581</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="11">
         <v>-3.5785495362045672E-2</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="7">
         <v>-10689939.224985769</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="10">
         <v>-204.25067380210839</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="11">
         <v>-3.2648062227546348E-2</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="7">
         <v>-10740623.807220772</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="10">
         <v>-139.94781633245839</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="11">
         <v>-2.226862320684975E-2</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="7">
         <v>-10799563.064651314</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="10">
         <v>-259.60458383605419</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="11">
         <v>-3.5086515005628871E-2</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="7">
         <v>-11111855.001934627</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="10">
         <v>-176.28672677339449</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="11">
         <v>-2.7018293476808949E-2</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="7">
         <v>-11177724.341157237</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="10">
         <v>-264.32056313405792</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="11">
         <v>-4.0243656201380713E-2</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="7">
         <v>-11663012.688008739</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="10">
         <v>-302.83655536863353</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="11">
         <v>-4.5156253377475968E-2</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="7">
         <v>-11806688.784156915</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="10">
         <v>-276.41866215275792</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="11">
         <v>-4.2569070331338277E-2</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="7">
         <v>-11876880.65671755</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="12">
+      <c r="B104" s="10">
         <v>-101.1933976295086</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="11">
         <v>-1.5673477931672179E-2</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="7">
         <v>-12164154.74885034</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="12">
+      <c r="B105" s="10">
         <v>-316.37798008931532</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="11">
         <v>-4.4602491619251998E-2</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="7">
         <v>-12380661.305845132</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="10">
         <v>-156.53577062707521</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="11">
         <v>-2.5918072532176262E-2</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="7">
         <v>-12438880.209224591</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="10">
         <v>-264.44521065966819</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="11">
         <v>-4.0356508480972282E-2</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="7">
         <v>-12657934.453435678</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="10">
         <v>-324.36788378869642</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="11">
         <v>-5.0016514263056873E-2</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="7">
         <v>-12719275.643064259</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="10">
         <v>-592.00333401565149</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="11">
         <v>-6.4100311934926935E-2</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="7">
         <v>-12966057.021610798</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="10">
         <v>-191.99341138293309</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="11">
         <v>-2.8205037504145158E-2</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="7">
         <v>-13185435.516840003</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="10">
         <v>-428.26037774499042</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="11">
         <v>-6.1504464144549242E-2</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="7">
         <v>-13460223.672525048</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B112" s="12">
+      <c r="B112" s="10">
         <v>-162.9211010653116</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="11">
         <v>-2.519299746324721E-2</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="7">
         <v>-13567987.836168617</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="10">
         <v>-357.66030709202369</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="11">
         <v>-5.4496735826825571E-2</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="7">
         <v>-14481844.664309585</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="10">
         <v>-666.3846878017066</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="11">
         <v>-6.9505517827918029E-2</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="7">
         <v>-14656798.015854636</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="10">
         <v>-426.35870353422428</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="11">
         <v>-6.4267780331057955E-2</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="7">
         <v>-15314591.45159757</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="10">
         <v>-187.11819337987339</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="11">
         <v>-2.556302011776013E-2</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="7">
         <v>-15336862.043091252</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="10">
         <v>-534.10573758746887</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="11">
         <v>-7.9304715476166909E-2</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="7">
         <v>-15486662.914217453</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="10">
         <v>-471.22734670333188</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="11">
         <v>-5.2161790374867789E-2</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="7">
         <v>-15639093.182390178</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="10">
         <v>-380.32599921661398</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="11">
         <v>-4.6051628641126108E-2</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D119" s="7">
         <v>-15911888.992225088</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B120" s="12">
+      <c r="B120" s="10">
         <v>-538.66643675232172</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="11">
         <v>-8.0868435440852759E-2</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="7">
         <v>-16092929.131193988</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="10">
         <v>-72.27248946216514</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="11">
         <v>-1.1471940121499319E-2</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="7">
         <v>-16536957.403795855</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="10">
         <v>-454.72858233570793</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C122" s="11">
         <v>-5.3657111011623293E-2</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="7">
         <v>-16754701.980450327</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="10">
         <v>-112.48822214860409</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="11">
         <v>-1.843676416747364E-2</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="7">
         <v>-16906192.371380154</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="10">
         <v>-96.358652899988556</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="11">
         <v>-1.6129454796691371E-2</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="7">
         <v>-17386907.149947487</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="10">
         <v>-1325.4081683819641</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="11">
         <v>-0.1313275374530993</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="7">
         <v>-17460927.210263994</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B126" s="12">
+      <c r="B126" s="10">
         <v>-495.30381244383528</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="11">
         <v>-5.8183693648950603E-2</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="7">
         <v>-18446847.538751978</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="10">
         <v>-940.41141013965898</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="11">
         <v>-9.8232500805158773E-2</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="7">
         <v>-18522343.134110723</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="10">
         <v>-158.59337423066339</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="11">
         <v>-2.570483170943649E-2</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="7">
         <v>-18576200.517011832</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="10">
         <v>-363.00807239713498</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="11">
         <v>-5.632073241414115E-2</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="7">
         <v>-18594725.500470843</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="10">
         <v>-318.3993469272973</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C130" s="11">
         <v>-3.6593131955922183E-2</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="7">
         <v>-18596113.8572888</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B131" s="12">
+      <c r="B131" s="10">
         <v>-347.8116165905667</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="11">
         <v>-4.8214089497761847E-2</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="7">
         <v>-18767914.831226978</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="10">
         <v>-403.48807060352829</v>
       </c>
-      <c r="C132" s="13">
+      <c r="C132" s="11">
         <v>-6.1496625047597009E-2</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="7">
         <v>-20161290.167881798</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B133" s="12">
+      <c r="B133" s="10">
         <v>-432.55907894742899</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="11">
         <v>-6.5200930716414862E-2</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="7">
         <v>-20453772.327568654</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B134" s="12">
+      <c r="B134" s="10">
         <v>-474.69679948856719</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C134" s="11">
         <v>-6.9222957410245423E-2</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="7">
         <v>-21002959.893371657</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B135" s="12">
+      <c r="B135" s="10">
         <v>-416.13086710309562</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="11">
         <v>-5.4591457353944439E-2</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="7">
         <v>-21198122.501098793</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B136" s="10">
         <v>-764.26016899584101</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="11">
         <v>-7.5383165846059752E-2</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="7">
         <v>-21259042.990872812</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="10">
         <v>-485.13386424115009</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="11">
         <v>-6.0453248253197527E-2</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="7">
         <v>-21810648.268553626</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B138" s="12">
+      <c r="B138" s="10">
         <v>-548.67229447365298</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="11">
         <v>-6.9669757423296397E-2</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="7">
         <v>-22264847.373593602</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B139" s="12">
+      <c r="B139" s="10">
         <v>-397.93695279309668</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="11">
         <v>-5.5389729612404848E-2</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="7">
         <v>-22310335.258344967</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B140" s="12">
+      <c r="B140" s="10">
         <v>-596.61777118667305</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="11">
         <v>-8.4723261209490919E-2</v>
       </c>
-      <c r="D140" s="8">
+      <c r="D140" s="7">
         <v>-23042869.867657281</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="12">
+      <c r="B141" s="10">
         <v>-415.9655992944854</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="11">
         <v>-5.9930108872749521E-2</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="7">
         <v>-23620190.590338059</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B142" s="12">
+      <c r="B142" s="10">
         <v>-690.13567666432573</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="11">
         <v>-7.2573636670396291E-2</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D142" s="7">
         <v>-25106790.849209838</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B143" s="12">
+      <c r="B143" s="10">
         <v>-459.83396512735641</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="11">
         <v>-6.7341424385260806E-2</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="7">
         <v>-25396859.810966458</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B144" s="12">
+      <c r="B144" s="10">
         <v>-264.69871486328162</v>
       </c>
-      <c r="C144" s="13">
+      <c r="C144" s="11">
         <v>-4.1517196908095737E-2</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D144" s="7">
         <v>-28047078.778841026</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="12">
+      <c r="B145" s="10">
         <v>-744.09608374081654</v>
       </c>
-      <c r="C145" s="13">
+      <c r="C145" s="11">
         <v>-7.6997753829105231E-2</v>
       </c>
-      <c r="D145" s="8">
+      <c r="D145" s="7">
         <v>-30029113.603486262</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B146" s="12">
+      <c r="B146" s="10">
         <v>-538.15927421010747</v>
       </c>
-      <c r="C146" s="13">
+      <c r="C146" s="11">
         <v>-7.4517662195066392E-2</v>
       </c>
-      <c r="D146" s="8">
+      <c r="D146" s="7">
         <v>-38045169.890283547</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B147" s="12">
+      <c r="B147" s="10">
         <v>-365.51992541210348</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="11">
         <v>-5.540747480052377E-2</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="7">
         <v>-38808895.320667379</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B148" s="12">
+      <c r="B148" s="10">
         <v>-210.76078919220069</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="11">
         <v>-3.4148881869979553E-2</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="7">
         <v>-42396956.495086879</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B149" s="12">
+      <c r="B149" s="10">
         <v>-243.38994913999801</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="11">
         <v>-3.7905916753062867E-2</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="7">
         <v>-42606627.546702355</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="10">
         <v>-468.60768815856233</v>
       </c>
-      <c r="C150" s="13">
+      <c r="C150" s="11">
         <v>-6.6737042750085074E-2</v>
       </c>
-      <c r="D150" s="8">
+      <c r="D150" s="7">
         <v>-43053565.653411992</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="10">
         <v>-256.62247518544342</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="11">
         <v>-4.1015733166334112E-2</v>
       </c>
-      <c r="D151" s="8">
+      <c r="D151" s="7">
         <v>-48902620.427526064</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B152" s="12">
+      <c r="B152" s="10">
         <v>-1123.2331455020339</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="11">
         <v>-0.1103499851152492</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D152" s="7">
         <v>-49987806.290849768</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="10">
         <v>-473.83980763598453</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="11">
         <v>-6.3966238865717062E-2</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D153" s="7">
         <v>-91174834.265893236</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
+      <c r="A154" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
@@ -6981,15 +7007,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6997,7 +7023,7 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>-106.14857163632129</v>
       </c>
     </row>
@@ -7005,7 +7031,7 @@
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>-227.35853721447711</v>
       </c>
     </row>
@@ -7013,7 +7039,7 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>-352.75653261100251</v>
       </c>
     </row>
@@ -7021,7 +7047,7 @@
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>-224.13010060412401</v>
       </c>
     </row>
@@ -7029,7 +7055,7 @@
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>-230.0971239960891</v>
       </c>
     </row>
@@ -7037,7 +7063,7 @@
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>-98.755067312671599</v>
       </c>
     </row>
@@ -7045,7 +7071,7 @@
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>-61.726410633947133</v>
       </c>
     </row>
@@ -7053,7 +7079,7 @@
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>-217.23882344212419</v>
       </c>
     </row>
@@ -7061,7 +7087,7 @@
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>-203.22181405686109</v>
       </c>
     </row>
@@ -7079,22 +7105,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
+      <c r="A1" s="4"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7135,92 +7161,92 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>-729.41871019380051</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>-1395.628447909839</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>-1342.435362024695</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>-1933.781385196889</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>-1284.6709749304059</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>-6.5717020867647191E-2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>-0.12573922570536281</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>-0.1209467915570808</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>-0.17422414570458011</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>-0.11574250576206251</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>-933.26958596428813</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>-1694.803517960961</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>-1917.0666175447391</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>-2070.4851919233238</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>-1466.821388478284</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>-7.2792391695833514E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>-0.1321898874476036</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>-0.1495257814355295</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>-0.16149199690803259</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>-0.1144079252808987</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -7257,200 +7283,200 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>-152.67711616218091</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>-197.09042375371061</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>-172.1180552773094</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>-245.94561501703811</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>-37.22653794119924</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>-3.0015158845858151E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>-3.8746477040352063E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>-3.3837099489755218E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>-4.8351035752712601E-2</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>-7.3184539875612584E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>-175.15783065712</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>-215.37122796428139</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>-185.9911459316836</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>-279.67524978291573</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>-62.340723113556123</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>-3.336958463898565E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>-4.1030700102840163E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>-3.5433456003566621E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>-5.3281357071209401E-2</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>-1.1876625946947489E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>-205.14099517582139</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>-256.56119100596788</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>-244.71211879743259</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>-343.05026213574638</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>-121.3788665815746</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>-3.6685206340820287E-2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>-4.5880640400685069E-2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>-4.3761679933788433E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>-6.1347414449930637E-2</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>-2.1706089327213959E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>-262.38529259803357</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>-287.82605308450269</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>-292.04385353423282</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>-412.90428187913039</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>-193.6971081886231</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>-4.2787478439414113E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>-4.6936133190672358E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>-4.7623934873524447E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>-6.7332787152481921E-2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>-3.1586415375400863E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>-288.48865949967882</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>-332.88974608425451</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>-341.15665332089878</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>-448.48717351485448</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>-203.30842064544501</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>-4.242935280700677E-2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>-4.8959624641534472E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>-5.017547667667055E-2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>-6.5961069483565615E-2</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>-2.9901503661049489E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -7487,200 +7513,200 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>-57.229372323604373</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>-220.43759004924229</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>-244.3554266827696</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>-399.92261144301119</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>-58.216941235432387</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>-9.4951123477137189E-3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>-3.6573521571081957E-2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>-4.0541808077274137E-2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>-6.6352468529106368E-2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>-9.6589631360098904E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>-135.19775932184169</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>-330.6125777003499</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>-374.48859713328238</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>-572.30316448357462</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>-232.3302332024914</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>-2.0945309015344419E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>-5.1219655111360167E-2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>-5.8017081266910082E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>-8.8663204854101618E-2</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>-3.599341107753895E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>-276.28966196951751</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>-456.23810688202229</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>-539.84869764850191</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>-670.65673575999881</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>-406.71247446801863</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>-4.0002596869301299E-2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>-6.6056431268240234E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>-7.8161990095861555E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>-9.710103102319001E-2</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>-5.8885862908816138E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>-333.60871189552017</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>-559.34891927085664</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>-677.79717265749787</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>-856.88300801852347</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>-592.57831046401134</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>-4.390434371296692E-2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>-7.3612727520243282E-2</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>-8.9201027955623902E-2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>-0.1127694954130226</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>-7.7985858557582111E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>-431.27343374780679</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>-659.2463693715772</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>-811.11769072433617</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>-1055.569872103636</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>-788.31342255032632</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>-4.9880547282630923E-2</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>-7.6247612593663305E-2</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>-9.3812860143879351E-2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>-0.1220858944591874</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>-9.1175346937896307E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -7717,195 +7743,195 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>-748.389737532445</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>-892.57359157943938</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>-1117.2100384815169</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>-2853.2924633644429</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>-1560.746884784166</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>-2.8838735012005959E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>-3.4394770525775553E-2</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>-4.3050996875975467E-2</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>-0.1099498578561862</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>-6.0142414538591933E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>-990.0776854308242</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>-1106.4102847124341</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>-1519.948596767819</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>-3215.439658600706</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>-2039.944353707815</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>-3.8999490451952057E-2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>-4.3581870361827257E-2</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>-5.9871282485586493E-2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>-0.1266572412546185</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>-8.035408889184581E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>-950.15809841460941</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>-1161.741719920632</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>-1338.607023308698</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>-3161.1444647574499</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>-1985.359746360456</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>-3.8251889651288007E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>-4.6769917709326592E-2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>-5.3890240190006773E-2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>-0.12726276757462049</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>-7.992750055238762E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>-811.9388331217524</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>-1093.828115903998</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>-1681.4280745412109</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>-3168.3436590720671</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>-2356.0429968884268</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>-3.0248401677185122E-2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>-4.0750055134635033E-2</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>-6.2640816912856945E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>-0.11803516193762729</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>-8.7773280487883021E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>-1216.522215973459</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>-1960.5732038567619</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>-2343.6173082079799</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>-3693.142765904759</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>-3113.2518850007041</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>-4.0389657135941233E-2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>-6.5092834683930012E-2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>-7.7810251463951152E-2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>-0.12261573862801479</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <v>-0.1033628277083143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/charts.xlsx
+++ b/output/charts.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awby\github\school-cuts\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBFE08E-371C-46A5-8425-53C541B5594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E02E09-8191-4205-BCBD-88FF0E2A12CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{C26A289C-3423-40F7-ADA5-9942CC10928D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C26A289C-3423-40F7-ADA5-9942CC10928D}"/>
   </bookViews>
   <sheets>
-    <sheet name="phase data" sheetId="1" r:id="rId1"/>
-    <sheet name="phase chart" sheetId="2" r:id="rId2"/>
-    <sheet name="la data" sheetId="10" r:id="rId3"/>
-    <sheet name="region data" sheetId="7" r:id="rId4"/>
-    <sheet name="region chart" sheetId="9" r:id="rId5"/>
-    <sheet name="phase specific data" sheetId="3" r:id="rId6"/>
-    <sheet name="primary chart" sheetId="6" r:id="rId7"/>
-    <sheet name="secondary chart" sheetId="5" r:id="rId8"/>
+    <sheet name="MNS chart" sheetId="11" r:id="rId1"/>
+    <sheet name="phase data" sheetId="1" r:id="rId2"/>
+    <sheet name="phase chart" sheetId="2" r:id="rId3"/>
+    <sheet name="la data" sheetId="10" r:id="rId4"/>
+    <sheet name="region data" sheetId="7" r:id="rId5"/>
+    <sheet name="region chart" sheetId="9" r:id="rId6"/>
+    <sheet name="phase specific data" sheetId="3" r:id="rId7"/>
+    <sheet name="primary chart" sheetId="6" r:id="rId8"/>
+    <sheet name="secondary chart" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -763,7 +764,18 @@
               <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
+              <a:t>Change to real terms per pupil funding </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>for maintained nursery schools 2015-16 to 2020-21</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="2000">
               <a:solidFill>
@@ -818,6 +830,7 @@
                   <c:v>Nursery</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -851,6 +864,7 @@
                   <c:v>2020-21</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -875,14 +889,768 @@
                   <c:v>-0.1176611902853099</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-47A5-4A48-8A13-EF1B4F2FA295}"/>
+              <c16:uniqueId val="{00000005-82AA-470C-A78F-668C5304EFB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="413455103"/>
+        <c:axId val="413447199"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>16 plus</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2016-17</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2017-18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2018-19</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2019-20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2020-21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$3:$F$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>-9.0402522890201453E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.12923400553401579</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.15571109672604089</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.11242841419754231</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-6.771658035202377E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-82AA-470C-A78F-668C5304EFB1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>All-through</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2016-17</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2017-18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2018-19</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2019-20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2020-21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$4:$F$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>-4.673656630936196E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-7.9196185896571847E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.1114181862483602</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.1132906982013384</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-0.10573592949532119</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-82AA-470C-A78F-668C5304EFB1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Primary</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2016-17</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2017-18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2018-19</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2019-20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2020-21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$6:$F$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>-3.7960131391078011E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-4.5305337079191932E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-4.3947795211552447E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-5.0486825169103078E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-2.4048446488107781E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-82AA-470C-A78F-668C5304EFB1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Secondary</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="0070C0"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2016-17</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2017-18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2018-19</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2019-20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2020-21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$7:$F$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>-3.2238706712261589E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-6.0201415802036751E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-7.0834081543676986E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-7.4029814891239498E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-5.2533082542794207E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-82AA-470C-A78F-668C5304EFB1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Special</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2016-17</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2017-18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2018-19</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2019-20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2020-21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$8:$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>-3.8339279169443019E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-4.8201812176985943E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-6.395207958394844E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-7.7818685635984153E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-8.1804319228364064E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-82AA-470C-A78F-668C5304EFB1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="413455103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413447199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413447199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413455103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
@@ -1321,6 +2089,103 @@
                 </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Nursery</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2016-17</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2017-18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2018-19</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2019-20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2020-21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$5:$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>-6.7918521578482438E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.12885179205321931</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.1289989429161805</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.17305321221324529</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-0.1176611902853099</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-47A5-4A48-8A13-EF1B4F2FA295}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
@@ -1499,7 +2364,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1833,7 +2698,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2464,7 +3329,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3130,6 +3995,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3686,6 +4591,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4189,6 +5610,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C8CDA643-DF3E-4ECD-8B46-2D9DC085B65A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C9AD12AB-9F21-48F3-ACE4-9CFB358FA646}">
   <sheetPr/>
   <sheetViews>
@@ -4199,18 +5631,18 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1729F68F-E1F4-4593-81C9-BE923D09C9AC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F35668DC-4F0E-4BEF-802E-C18BABABFBA2}">
   <sheetPr/>
   <sheetViews>
@@ -4221,7 +5653,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C66D71E-7F79-4BAB-96A3-E692571F2DA1}">
   <sheetPr/>
   <sheetViews>
@@ -4233,6 +5665,39 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC23A5E-6204-49FA-A8A8-03B766442D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -4265,7 +5730,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -4298,7 +5763,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -4331,7 +5796,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>

--- a/output/charts.xlsx
+++ b/output/charts.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awby\github\school-cuts\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awby\GitHub\school-cuts\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E02E09-8191-4205-BCBD-88FF0E2A12CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF1D46C-8E3E-4B6E-97C6-2381AACC904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C26A289C-3423-40F7-ADA5-9942CC10928D}"/>
   </bookViews>
   <sheets>
-    <sheet name="MNS chart" sheetId="11" r:id="rId1"/>
-    <sheet name="phase data" sheetId="1" r:id="rId2"/>
-    <sheet name="phase chart" sheetId="2" r:id="rId3"/>
-    <sheet name="la data" sheetId="10" r:id="rId4"/>
-    <sheet name="region data" sheetId="7" r:id="rId5"/>
-    <sheet name="region chart" sheetId="9" r:id="rId6"/>
-    <sheet name="phase specific data" sheetId="3" r:id="rId7"/>
-    <sheet name="primary chart" sheetId="6" r:id="rId8"/>
-    <sheet name="secondary chart" sheetId="5" r:id="rId9"/>
+    <sheet name="phase data" sheetId="1" r:id="rId1"/>
+    <sheet name="phase chart" sheetId="2" r:id="rId2"/>
+    <sheet name="MNS chart" sheetId="11" r:id="rId3"/>
+    <sheet name="phase specific data" sheetId="3" r:id="rId4"/>
+    <sheet name="primary £ chart" sheetId="6" r:id="rId5"/>
+    <sheet name="primary % chart" sheetId="12" r:id="rId6"/>
+    <sheet name="secondary £ chart" sheetId="5" r:id="rId7"/>
+    <sheet name="secondary % chart" sheetId="13" r:id="rId8"/>
+    <sheet name="region data" sheetId="7" r:id="rId9"/>
+    <sheet name="region chart" sheetId="9" r:id="rId10"/>
+    <sheet name="la data" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -764,18 +766,7 @@
               <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Change to real terms per pupil funding </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>for maintained nursery schools 2015-16 to 2020-21</a:t>
+              <a:t>Change in real terms per pupil funding compared with 2015-16</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="2000">
               <a:solidFill>
@@ -819,23 +810,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'phase data'!$A$5</c:f>
+              <c:f>'phase data'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nursery</c:v>
+                  <c:v>Primary</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -864,37 +854,189 @@
                   <c:v>2020-21</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'phase data'!$B$5:$F$5</c:f>
+              <c:f>'phase data'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-6.7918521578482438E-2</c:v>
+                  <c:v>-3.5525155112272833E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.12885179205321931</c:v>
+                  <c:v>-4.7359475925678463E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1289989429161805</c:v>
+                  <c:v>-4.6557293740011607E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.17305321221324529</c:v>
+                  <c:v>-6.4197777109008869E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.1176611902853099</c:v>
+                  <c:v>-1.7591108585318649E-2</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-82AA-470C-A78F-668C5304EFB1}"/>
+              <c16:uniqueId val="{00000003-47A5-4A48-8A13-EF1B4F2FA295}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase data'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secondary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase data'!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase data'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.9329542493102819E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.2013602957389669E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.2786307439751341E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.8918432867991957E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6435994583142737E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-47A5-4A48-8A13-EF1B4F2FA295}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase data'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Special</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase data'!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase data'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-3.2441964831789183E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.7106466640536193E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.012061492109444E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1227576125806871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.5524406401533795E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-47A5-4A48-8A13-EF1B4F2FA295}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -984,26 +1126,26 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>-9.0402522890201453E-2</c:v>
+                        <c:v>-8.7943935282252639E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-0.12923400553401579</c:v>
+                        <c:v>-0.13121220321035931</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-0.15571109672604089</c:v>
+                        <c:v>-0.1583733767082196</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-0.11242841419754231</c:v>
+                        <c:v>-0.1391987484605732</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-6.771658035202377E-2</c:v>
+                        <c:v>-6.1625495066953813E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-82AA-470C-A78F-668C5304EFB1}"/>
+                    <c16:uniqueId val="{00000000-47A5-4A48-8A13-EF1B4F2FA295}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1081,54 +1223,54 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>-4.673656630936196E-2</c:v>
+                        <c:v>-4.4159952230980133E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-7.9196185896571847E-2</c:v>
+                        <c:v>-8.1288059002555424E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-0.1114181862483602</c:v>
+                        <c:v>-0.11414401857436721</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-0.1132906982013384</c:v>
+                        <c:v>-0.1334954534665207</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-0.10573592949532119</c:v>
+                        <c:v>-9.9893244099420908E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-82AA-470C-A78F-668C5304EFB1}"/>
+                    <c16:uniqueId val="{00000001-47A5-4A48-8A13-EF1B4F2FA295}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'phase data'!$A$6</c15:sqref>
+                          <c15:sqref>'phase data'!$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Primary</c:v>
+                        <c:v>Nursery</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:srgbClr val="00B050"/>
+                    <a:srgbClr val="C00000"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1138,7 +1280,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
@@ -1167,10 +1309,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'phase data'!$B$6:$F$6</c15:sqref>
+                          <c15:sqref>'phase data'!$B$5:$F$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1178,220 +1320,26 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>-3.7960131391078011E-2</c:v>
+                        <c:v>-6.5399161059006561E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-4.5305337079191932E-2</c:v>
+                        <c:v>-0.13083085803841399</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-4.3947795211552447E-2</c:v>
+                        <c:v>-0.13174545381990049</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-5.0486825169103078E-2</c:v>
+                        <c:v>-0.17583655234498249</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-2.4048446488107781E-2</c:v>
+                        <c:v>-0.1118964187286858</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-82AA-470C-A78F-668C5304EFB1}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'phase data'!$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Secondary</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:srgbClr val="0070C0"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>2016-17</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2017-18</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2018-19</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2019-20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2020-21</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'phase data'!$B$7:$F$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>-3.2238706712261589E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-6.0201415802036751E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-7.0834081543676986E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-7.4029814891239498E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-5.2533082542794207E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-82AA-470C-A78F-668C5304EFB1}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'phase data'!$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Special</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:srgbClr val="7030A0"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>2016-17</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2017-18</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2018-19</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2019-20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2020-21</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'phase data'!$B$8:$F$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>-3.8339279169443019E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-4.8201812176985943E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-6.395207958394844E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-7.7818685635984153E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-8.1804319228364064E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-82AA-470C-A78F-668C5304EFB1}"/>
+                    <c16:uniqueId val="{00000002-47A5-4A48-8A13-EF1B4F2FA295}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1608,7 +1556,18 @@
               <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
+              <a:t>Change to real terms per pupil funding compared with 2015-16</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>for maintained nursery schools</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="2000">
               <a:solidFill>
@@ -1652,22 +1611,23 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'phase data'!$A$6</c:f>
+              <c:f>'phase data'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Primary</c:v>
+                  <c:v>Nursery</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1696,189 +1656,37 @@
                   <c:v>2020-21</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'phase data'!$B$6:$F$6</c:f>
+              <c:f>'phase data'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-3.7960131391078011E-2</c:v>
+                  <c:v>-6.5399161059006561E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.5305337079191932E-2</c:v>
+                  <c:v>-0.13083085803841399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.3947795211552447E-2</c:v>
+                  <c:v>-0.13174545381990049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.0486825169103078E-2</c:v>
+                  <c:v>-0.17583655234498249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.4048446488107781E-2</c:v>
+                  <c:v>-0.1118964187286858</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-47A5-4A48-8A13-EF1B4F2FA295}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'phase data'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Secondary</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'phase data'!$B$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2016-17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017-18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018-19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019-20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020-21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'phase data'!$B$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-3.2238706712261589E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.0201415802036751E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7.0834081543676986E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.4029814891239498E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.2533082542794207E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-47A5-4A48-8A13-EF1B4F2FA295}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'phase data'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Special</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'phase data'!$B$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2016-17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017-18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018-19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019-20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020-21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'phase data'!$B$8:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-3.8339279169443019E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.8201812176985943E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6.395207958394844E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.7818685635984153E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.1804319228364064E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-47A5-4A48-8A13-EF1B4F2FA295}"/>
+              <c16:uniqueId val="{00000005-82AA-470C-A78F-668C5304EFB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1968,26 +1776,26 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>-9.0402522890201453E-2</c:v>
+                        <c:v>-8.7943935282252639E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-0.12923400553401579</c:v>
+                        <c:v>-0.13121220321035931</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-0.15571109672604089</c:v>
+                        <c:v>-0.1583733767082196</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-0.11242841419754231</c:v>
+                        <c:v>-0.1391987484605732</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-6.771658035202377E-2</c:v>
+                        <c:v>-6.1625495066953813E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-47A5-4A48-8A13-EF1B4F2FA295}"/>
+                    <c16:uniqueId val="{00000003-82AA-470C-A78F-668C5304EFB1}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2065,54 +1873,54 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>-4.673656630936196E-2</c:v>
+                        <c:v>-4.4159952230980133E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-7.9196185896571847E-2</c:v>
+                        <c:v>-8.1288059002555424E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-0.1114181862483602</c:v>
+                        <c:v>-0.11414401857436721</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-0.1132906982013384</c:v>
+                        <c:v>-0.1334954534665207</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-0.10573592949532119</c:v>
+                        <c:v>-9.9893244099420908E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-47A5-4A48-8A13-EF1B4F2FA295}"/>
+                    <c16:uniqueId val="{00000004-82AA-470C-A78F-668C5304EFB1}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="3"/>
+                <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'phase data'!$A$5</c15:sqref>
+                          <c15:sqref>'phase data'!$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Nursery</c:v>
+                        <c:v>Primary</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:srgbClr val="C00000"/>
+                    <a:srgbClr val="00B050"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -2122,7 +1930,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
@@ -2151,10 +1959,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'phase data'!$B$5:$F$5</c15:sqref>
+                          <c15:sqref>'phase data'!$B$6:$F$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2162,26 +1970,220 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>-6.7918521578482438E-2</c:v>
+                        <c:v>-3.5525155112272833E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-0.12885179205321931</c:v>
+                        <c:v>-4.7359475925678463E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-0.1289989429161805</c:v>
+                        <c:v>-4.6557293740011607E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-0.17305321221324529</c:v>
+                        <c:v>-6.4197777109008869E-2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-0.1176611902853099</c:v>
+                        <c:v>-1.7591108585318649E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-47A5-4A48-8A13-EF1B4F2FA295}"/>
+                    <c16:uniqueId val="{00000000-82AA-470C-A78F-668C5304EFB1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Secondary</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="0070C0"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2016-17</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2017-18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2018-19</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2019-20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2020-21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$7:$F$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>-2.9329542493102819E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-6.2013602957389669E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-7.2786307439751341E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-9.8918432867991957E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-4.6435994583142737E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-82AA-470C-A78F-668C5304EFB1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Special</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2016-17</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2017-18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2018-19</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2019-20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2020-21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'phase data'!$B$8:$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>-3.2441964831789183E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-4.7106466640536193E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-6.012061492109444E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.1227576125806871</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-7.5524406401533795E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-82AA-470C-A78F-668C5304EFB1}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2385,340 +2387,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'region data'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Change in per pupil funding 2020-21 with 2015-16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'region data'!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>East Midlands</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>East of England</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>London</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>North East</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>North West</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>South East</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>South West</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>West Midlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Yorkshire and the Humber</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'region data'!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>"£"#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-106.14857163632129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-227.35853721447711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-352.75653261100251</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-224.13010060412401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-230.0971239960891</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-98.755067312671599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-61.726410633947133</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-217.23882344212419</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-203.22181405686109</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-014A-4AB5-BB03-AF1985418688}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="50"/>
-        <c:overlap val="-27"/>
-        <c:axId val="406332447"/>
-        <c:axId val="406332863"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="406332447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="406332863"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="406332863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;£&quot;#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="406332447"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
               <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2732,7 +2400,7 @@
               <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
+              <a:t>Change in real terms per pupil funding compared with 2015-16</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
@@ -2832,19 +2500,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-152.67711616218091</c:v>
+                  <c:v>-143.5335457617366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-197.09042375371061</c:v>
+                  <c:v>-213.9681007509171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-172.1180552773094</c:v>
+                  <c:v>-197.37741733366599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-245.94561501703811</c:v>
+                  <c:v>-279.84761372602043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-37.22653794119924</c:v>
+                  <c:v>-12.834201037714591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,19 +2580,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-175.15783065712</c:v>
+                  <c:v>-167.05108924426349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-215.37122796428139</c:v>
+                  <c:v>-242.27422499618481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-185.9911459316836</c:v>
+                  <c:v>-210.56021676883481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-279.67524978291573</c:v>
+                  <c:v>-300.56168047872779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-62.340723113556123</c:v>
+                  <c:v>-33.609402957137718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,19 +2660,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-205.14099517582139</c:v>
+                  <c:v>-196.2961052617193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-256.56119100596788</c:v>
+                  <c:v>-269.38494616562821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-244.71211879743259</c:v>
+                  <c:v>-255.01792860812111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-343.05026213574638</c:v>
+                  <c:v>-365.34162842356181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-121.3788665815746</c:v>
+                  <c:v>-80.915796599339046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3071,19 +2739,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-262.38529259803357</c:v>
+                  <c:v>-255.46255446905161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-287.82605308450269</c:v>
+                  <c:v>-303.87329244089779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-292.04385353423282</c:v>
+                  <c:v>-314.26586184098869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-412.90428187913039</c:v>
+                  <c:v>-434.382673980459</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-193.6971081886231</c:v>
+                  <c:v>-158.10035375840289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3146,19 +2814,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-288.48865949967882</c:v>
+                  <c:v>-282.04726022263179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-332.88974608425451</c:v>
+                  <c:v>-363.56847366434522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-341.15665332089878</c:v>
+                  <c:v>-376.43958680872493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-448.48717351485448</c:v>
+                  <c:v>-481.44098324854622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-203.30842064544501</c:v>
+                  <c:v>-159.3573303785297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,6 +2997,637 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Change in real terms per pupil funding compared with 2015-16</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>in primary schools by pupil deprivation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23125877018088534"/>
+          <c:y val="1.0440735507889168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.7279806262555328E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0666509726870907E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7513305178177532E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.3187487600681822E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4392522039741178E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-21D7-40BC-B523-BF4EB95F39AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-3.0892575120149649E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4803507293668887E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.8938670458681927E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.558254264867879E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.2153501081251283E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-21D7-40BC-B523-BF4EB95F39AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-3.410577740343923E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.6804713713054502E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.4308493514929159E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.3476859301975996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.405884311132688E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-21D7-40BC-B523-BF4EB95F39AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4.0306449321361508E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.7944613594506753E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.9584335598829798E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.8536162848837234E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4944806136839911E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-21D7-40BC-B523-BF4EB95F39AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4.0324581318362251E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.1979751441295297E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.3819947471700602E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.8832103044270232E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.278347828110017E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-21D7-40BC-B523-BF4EB95F39AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="413455103"/>
+        <c:axId val="413447199"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="413455103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413447199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413447199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413455103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3363,7 +3662,7 @@
               <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Change in real terms per pupil funding 2015-16 to 2020-21</a:t>
+              <a:t>Change in real terms per pupil funding compared with 2015-16</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -3457,19 +3756,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-57.229372323604373</c:v>
+                  <c:v>-43.426232607213016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-220.43759004924229</c:v>
+                  <c:v>-235.66476135312769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-244.3554266827696</c:v>
+                  <c:v>-265.67401827542841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-399.92261144301119</c:v>
+                  <c:v>-438.07724462115129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-58.216941235432387</c:v>
+                  <c:v>-24.344015591576859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3537,19 +3836,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-135.19775932184169</c:v>
+                  <c:v>-116.88325508271831</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-330.6125777003499</c:v>
+                  <c:v>-360.62014332573381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-374.48859713328238</c:v>
+                  <c:v>-406.08431857005053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-572.30316448357462</c:v>
+                  <c:v>-608.75401840348786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-232.3302332024914</c:v>
+                  <c:v>-195.7281337710119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,19 +3916,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-276.28966196951751</c:v>
+                  <c:v>-273.95280267702401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-456.23810688202229</c:v>
+                  <c:v>-489.54667960738612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-539.84869764850191</c:v>
+                  <c:v>-605.35613960383944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-670.65673575999881</c:v>
+                  <c:v>-742.89308363415603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-406.71247446801863</c:v>
+                  <c:v>-407.25006078930159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,19 +3995,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-333.60871189552017</c:v>
+                  <c:v>-315.90727840718682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-559.34891927085664</c:v>
+                  <c:v>-604.93557436289302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-677.79717265749787</c:v>
+                  <c:v>-680.47294202437843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-856.88300801852347</c:v>
+                  <c:v>-891.65795857485864</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-592.57831046401134</c:v>
+                  <c:v>-561.42390242866531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,19 +4070,19 @@
                 <c:formatCode>"£"#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-431.27343374780679</c:v>
+                  <c:v>-425.52103863917358</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-659.2463693715772</c:v>
+                  <c:v>-675.23337953760347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-811.11769072433617</c:v>
+                  <c:v>-846.48318765387012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1055.569872103636</c:v>
+                  <c:v>-1086.1476323784141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-788.31342255032632</c:v>
+                  <c:v>-724.74814615216019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3941,6 +4240,973 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Change in real terms per pupil funding compared with 2015-16</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>in secondary schools by pupil deprivation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6.9655664289718366E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.7800620768110298E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2614104693069699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.0267577112427926E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.9047793826556538E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1CC3-40CA-8CDF-56A1DE273445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.7604759134806192E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.4315998967652927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.1163736514595612E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.1689505556244111E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.948024204583655E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1CC3-40CA-8CDF-56A1DE273445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$16:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-3.8362661289822797E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8553098460089723E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.4770341155135265E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1040301667422924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.7028787402984338E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-1CC3-40CA-8CDF-56A1DE273445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$17:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4.025209143398234E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.7079332181571703E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.6704108936076829E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1136127595962878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.1535187057810146E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-1CC3-40CA-8CDF-56A1DE273445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'phase specific data'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'phase specific data'!$C$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'phase specific data'!$H$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4.7798895424324139E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.584915142797255E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.5085689521982153E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1220072625820422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.1411158794136962E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-1CC3-40CA-8CDF-56A1DE273445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="413455103"/>
+        <c:axId val="413447199"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="413455103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413447199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413447199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413455103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Change in real terms per pupil funding compared</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> with </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>2015-16</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'region data'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Change in per pupil funding 2020-21 with 2015-16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'region data'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>East Midlands</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East of England</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>London</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>North East</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>North West</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South East</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>West Midlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yorkshire and the Humber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'region data'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>"£"#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-69.724450288380467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-198.26838322500041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-326.18091842142991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-182.19899574945521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-202.01799986289009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-66.303978177558747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-28.720431436070609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-189.00434752422279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-176.27493344133379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-014A-4AB5-BB03-AF1985418688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="406332447"/>
+        <c:axId val="406332863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="406332447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406332863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406332863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;£&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406332447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5610,17 +6876,6 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C8CDA643-DF3E-4ECD-8B46-2D9DC085B65A}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C9AD12AB-9F21-48F3-ACE4-9CFB358FA646}">
   <sheetPr/>
   <sheetViews>
@@ -5631,8 +6886,19 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C8CDA643-DF3E-4ECD-8B46-2D9DC085B65A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1729F68F-E1F4-4593-81C9-BE923D09C9AC}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F35668DC-4F0E-4BEF-802E-C18BABABFBA2}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
@@ -5643,7 +6909,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F35668DC-4F0E-4BEF-802E-C18BABABFBA2}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CCE79C66-0399-4EB3-A9DD-60CFBB5626F9}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
@@ -5664,11 +6930,66 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2479BBC9-3871-4A2F-BB2C-0A35F92E5ACA}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1729F68F-E1F4-4593-81C9-BE923D09C9AC}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:ext cx="9290779" cy="6050717"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC92C996-900F-47A5-BD7E-7EFDF318740F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9290779" cy="6050717"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5697,77 +7018,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC92C996-900F-47A5-BD7E-7EFDF318740F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C999FA-5A88-481E-8E30-E496E107872C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:ext cx="9290779" cy="6050717"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5796,17 +7051,116 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9290779" cy="6050717"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34801B0B-2812-41B4-B458-C599C0F36EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:ext cx="9290779" cy="6050717"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3B72FD-5305-4699-A85D-F3DF05918F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9290779" cy="6050717"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891885BE-8C74-4631-A84B-15DD7E33D0ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9290779" cy="6050717"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C999FA-5A88-481E-8E30-E496E107872C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6128,8 +7482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57911CC4-A68B-4D83-B9D2-99C08D226D6D}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6173,19 +7527,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>-9.0402522890201453E-2</v>
+        <v>-8.7943935282252639E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>-0.12923400553401579</v>
+        <v>-0.13121220321035931</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.15571109672604089</v>
+        <v>-0.1583733767082196</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.11242841419754231</v>
+        <v>-0.1391987484605732</v>
       </c>
       <c r="F3" s="2">
-        <v>-6.771658035202377E-2</v>
+        <v>-6.1625495066953813E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6193,19 +7547,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>-4.673656630936196E-2</v>
+        <v>-4.4159952230980133E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>-7.9196185896571847E-2</v>
+        <v>-8.1288059002555424E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>-0.1114181862483602</v>
+        <v>-0.11414401857436721</v>
       </c>
       <c r="E4" s="2">
-        <v>-0.1132906982013384</v>
+        <v>-0.1334954534665207</v>
       </c>
       <c r="F4" s="2">
-        <v>-0.10573592949532119</v>
+        <v>-9.9893244099420908E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6213,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>-6.7918521578482438E-2</v>
+        <v>-6.5399161059006561E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>-0.12885179205321931</v>
+        <v>-0.13083085803841399</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.1289989429161805</v>
+        <v>-0.13174545381990049</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.17305321221324529</v>
+        <v>-0.17583655234498249</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.1176611902853099</v>
+        <v>-0.1118964187286858</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6233,19 +7587,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>-3.7960131391078011E-2</v>
+        <v>-3.5525155112272833E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>-4.5305337079191932E-2</v>
+        <v>-4.7359475925678463E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>-4.3947795211552447E-2</v>
+        <v>-4.6557293740011607E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>-5.0486825169103078E-2</v>
+        <v>-6.4197777109008869E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>-2.4048446488107781E-2</v>
+        <v>-1.7591108585318649E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6253,19 +7607,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>-3.2238706712261589E-2</v>
+        <v>-2.9329542493102819E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>-6.0201415802036751E-2</v>
+        <v>-6.2013602957389669E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>-7.0834081543676986E-2</v>
+        <v>-7.2786307439751341E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>-7.4029814891239498E-2</v>
+        <v>-9.8918432867991957E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>-5.2533082542794207E-2</v>
+        <v>-4.6435994583142737E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6273,19 +7627,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>-3.8339279169443019E-2</v>
+        <v>-3.2441964831789183E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>-4.8201812176985943E-2</v>
+        <v>-4.7106466640536193E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>-6.395207958394844E-2</v>
+        <v>-6.012061492109444E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>-7.7818685635984153E-2</v>
+        <v>-0.1227576125806871</v>
       </c>
       <c r="F8" s="2">
-        <v>-8.1804319228364064E-2</v>
+        <v>-7.5524406401533795E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6297,6 +7651,948 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE01D860-1B57-4BE8-8294-C6299CB4737F}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-624.71799672903762</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1433.425098044791</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-1380.3561045467361</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-1992.647933393526</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-1269.5141645661261</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-5.4942552986097959E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-0.12606653692271949</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-0.1213992374332661</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-0.17524893669839051</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-0.1116509362920266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1305.4105374648459</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1894.9218586498009</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-2139.6751573751608</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-2300.484934669435</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-1406.932330895233</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-9.6840787714958076E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-0.14057319148527311</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-0.158730010021784</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-0.17065954870598041</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-0.1043720969574337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-143.5335457617366</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-213.9681007509171</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-197.37741733366599</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-279.84761372602043</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-12.834201037714591</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-2.7279806262555328E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-4.0666509726870907E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-3.7513305178177532E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-5.3187487600681822E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-2.4392522039741178E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-167.05108924426349</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-242.27422499618481</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-210.56021676883481</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-300.56168047872779</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-33.609402957137718</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-3.0892575120149649E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-4.4803507293668887E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-3.8938670458681927E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-5.558254264867879E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-6.2153501081251283E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-196.2961052617193</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-269.38494616562821</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-255.01792860812111</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-365.34162842356181</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-80.915796599339046</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-3.410577740343923E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-4.6804713713054502E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-4.4308493514929159E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-6.3476859301975996E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>-1.405884311132688E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-255.46255446905161</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-303.87329244089779</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-314.26586184098869</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-434.382673980459</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-158.10035375840289</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-4.0306449321361508E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-4.7944613594506753E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-4.9584335598829798E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>-6.8536162848837234E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-2.4944806136839911E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-282.04726022263179</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-363.56847366434522</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-376.43958680872493</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-481.44098324854622</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-159.3573303785297</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-4.0324581318362251E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-5.1979751441295297E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-5.3819947471700602E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-6.8832103044270232E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>-2.278347828110017E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-43.426232607213016</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-235.66476135312769</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-265.67401827542841</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-438.07724462115129</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-24.344015591576859</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-6.9655664289718366E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-3.7800620768110298E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-4.2614104693069699E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-7.0267577112427926E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-3.9047793826556538E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-116.88325508271831</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-360.62014332573381</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-406.08431857005053</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-608.75401840348786</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-195.7281337710119</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-1.7604759134806192E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-5.4315998967652927E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-6.1163736514595612E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>-9.1689505556244111E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>-2.948024204583655E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-273.95280267702401</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-489.54667960738612</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-605.35613960383944</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-742.89308363415603</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-407.25006078930159</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-3.8362661289822797E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-6.8553098460089723E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-8.4770341155135265E-2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>-0.1040301667422924</v>
+      </c>
+      <c r="L16" s="2">
+        <v>-5.7028787402984338E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-315.90727840718682</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-604.93557436289302</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-680.47294202437843</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-891.65795857485864</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-561.42390242866531</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-4.025209143398234E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-7.7079332181571703E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-8.6704108936076829E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-0.1136127595962878</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-7.1535187057810146E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-425.52103863917358</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-675.23337953760347</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-846.48318765387012</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1086.1476323784141</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-724.74814615216019</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-4.7798895424324139E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-7.584915142797255E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-9.5085689521982153E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>-0.1220072625820422</v>
+      </c>
+      <c r="L18" s="2">
+        <v>-8.1411158794136962E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-447.67571855448108</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-845.9538649160495</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1066.860641693256</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3046.638443245633</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1166.777989779614</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-1.683109436233177E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-3.1805006920089467E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-4.0110355303113909E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>-0.1145433111533263</v>
+      </c>
+      <c r="L21" s="2">
+        <v>-4.3866909979578317E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-1126.0860943025839</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-1410.914397124172</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-1695.577913887548</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-3309.70564625</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-2231.949606137176</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-4.3581654868584008E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-5.4605047176845223E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>-6.5622061953981126E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>-0.12809184832426579</v>
+      </c>
+      <c r="L22" s="2">
+        <v>-8.6380657669861138E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-727.9558827447072</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-1053.0029850237479</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1503.457460298843</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-3170.037373404215</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1811.003207106718</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-2.7788494642132289E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-4.0196622489200529E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>-5.7391966423382727E-2</v>
+      </c>
+      <c r="K23" s="2">
+        <v>-0.12101085883675081</v>
+      </c>
+      <c r="L23" s="2">
+        <v>-6.9132009384720194E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-939.27178192201609</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-1304.0753139483861</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1789.742126527497</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-3430.3786524941502</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-2073.32803370701</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-3.4208786413400312E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-4.749512839676906E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>-6.518337644101313E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>-0.12493624624826979</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-7.5511728591338589E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-1286.2835769576491</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-2167.094296431671</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-2465.4534393038298</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-3956.140247209074</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-3502.3402409308151</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-4.0404932110833743E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>-6.807309017518437E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>-7.7445192197126755E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>-0.1242708691713964</v>
+      </c>
+      <c r="L25" s="2">
+        <v>-0.11001603549860919</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E5E71C-7EBB-4C9C-B773-5969BD6E9FD8}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-69.724450288380467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-198.26838322500041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-326.18091842142991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-182.19899574945521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-202.01799986289009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-66.303978177558747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-28.720431436070609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-189.00434752422279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-176.27493344133379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D370F6F9-421E-406D-8F06-F33D91860D64}">
   <dimension ref="A1:D154"/>
   <sheetViews>
@@ -6324,506 +8620,506 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10">
-        <v>157.4716076148834</v>
+        <v>-197.28884099107111</v>
       </c>
       <c r="C2" s="11">
-        <v>2.6135478070946409E-2</v>
+        <v>-2.5358299774020709E-2</v>
       </c>
       <c r="D2" s="7">
-        <v>17681778.19684099</v>
+        <v>-7508911.9325406617</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10">
-        <v>211.1169606251178</v>
+        <v>-312.65417544190768</v>
       </c>
       <c r="C3" s="11">
-        <v>3.533807844806125E-2</v>
+        <v>-4.1995584446812513E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>14448211.434301186</v>
+        <v>-16870819.306845337</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10">
-        <v>84.597986882517944</v>
+        <v>0.80160052625706157</v>
       </c>
       <c r="C4" s="11">
-        <v>1.409273938450784E-2</v>
+        <v>1.2431561563275301E-4</v>
       </c>
       <c r="D4" s="7">
-        <v>8162986.6512744799</v>
+        <v>23628.377912216274</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="B5" s="10">
-        <v>68.381242074355214</v>
+        <v>262.99735633798991</v>
       </c>
       <c r="C5" s="11">
-        <v>1.0879146730068401E-2</v>
+        <v>4.3570297638507061E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>6823627.3841157584</v>
+        <v>6480254.8601680715</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="B6" s="10">
-        <v>228.8013595030898</v>
+        <v>-279.14697096224972</v>
       </c>
       <c r="C6" s="11">
-        <v>3.2753302787035483E-2</v>
+        <v>-4.1045826986741203E-2</v>
       </c>
       <c r="D6" s="7">
-        <v>6169971.8610400707</v>
+        <v>-7170866.9635637524</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10">
-        <v>215.21642359696031</v>
+        <v>-80.00963665684867</v>
       </c>
       <c r="C7" s="11">
-        <v>3.6796375659099663E-2</v>
+        <v>-1.167868906061342E-2</v>
       </c>
       <c r="D7" s="7">
-        <v>5302932.6774291024</v>
+        <v>-3427052.7669227989</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10">
-        <v>177.77548130168819</v>
+        <v>-442.26183749268972</v>
       </c>
       <c r="C8" s="11">
-        <v>2.8014334924267189E-2</v>
+        <v>-5.7850650678033078E-2</v>
       </c>
       <c r="D8" s="7">
-        <v>5123756.034336606</v>
+        <v>-85098695.984830871</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B9" s="10">
-        <v>54.750241863176598</v>
+        <v>-189.84896610225309</v>
       </c>
       <c r="C9" s="11">
-        <v>9.2479157476836882E-3</v>
+        <v>-2.7317222434639299E-2</v>
       </c>
       <c r="D9" s="7">
-        <v>4617361.6475309981</v>
+        <v>-4741857.6263359757</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" s="10">
-        <v>127.0547582309009</v>
+        <v>155.14437509914751</v>
       </c>
       <c r="C10" s="11">
-        <v>2.1190550269249101E-2</v>
+        <v>2.1730300101226341E-2</v>
       </c>
       <c r="D10" s="7">
-        <v>4036212.0321001443</v>
+        <v>2789340.719907573</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B11" s="10">
-        <v>64.774447776082525</v>
+        <v>-230.51390803740381</v>
       </c>
       <c r="C11" s="11">
-        <v>9.1210908202012941E-3</v>
+        <v>-3.4086665826994489E-2</v>
       </c>
       <c r="D11" s="7">
-        <v>3464007.9181693411</v>
+        <v>-11033778.72211837</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="B12" s="10">
-        <v>161.7078605429397</v>
+        <v>-115.5986261997232</v>
       </c>
       <c r="C12" s="11">
-        <v>2.5345213546621451E-2</v>
+        <v>-1.8189131866883531E-2</v>
       </c>
       <c r="D12" s="7">
-        <v>2946398.0730226329</v>
+        <v>-5138532.3325169962</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B13" s="10">
-        <v>53.471073062926727</v>
+        <v>185.62985918442061</v>
       </c>
       <c r="C13" s="11">
-        <v>8.0394661192615402E-3</v>
+        <v>3.1338076327522828E-2</v>
       </c>
       <c r="D13" s="7">
-        <v>2878695.4249522546</v>
+        <v>3025395.4449876873</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="B14" s="10">
-        <v>73.618192745798297</v>
+        <v>-439.4292541277182</v>
       </c>
       <c r="C14" s="11">
-        <v>1.240569703391148E-2</v>
+        <v>-6.0639557643943021E-2</v>
       </c>
       <c r="D14" s="7">
-        <v>2714818.0938868038</v>
+        <v>-40372782.43761117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="10">
-        <v>141.44525020824949</v>
+        <v>-449.8315250011583</v>
       </c>
       <c r="C15" s="11">
-        <v>2.4643554952925809E-2</v>
+        <v>-5.4314707897775372E-2</v>
       </c>
       <c r="D15" s="7">
-        <v>2305274.68789405</v>
+        <v>-20223525.701002076</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B16" s="10">
-        <v>104.4487813872711</v>
+        <v>172.40880784203179</v>
       </c>
       <c r="C16" s="11">
-        <v>1.509814378885865E-2</v>
+        <v>2.7862511394918469E-2</v>
       </c>
       <c r="D16" s="7">
-        <v>1877884.6405617471</v>
+        <v>5476996.8031217447</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" s="10">
-        <v>21.460027705827091</v>
+        <v>-363.67837856852202</v>
       </c>
       <c r="C17" s="11">
-        <v>3.5308317028117648E-3</v>
+        <v>-4.9108225610246747E-2</v>
       </c>
       <c r="D17" s="7">
-        <v>1804380.5895336478</v>
+        <v>-20457454.312047217</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B18" s="10">
-        <v>47.849380373965687</v>
+        <v>-446.86157425736928</v>
       </c>
       <c r="C18" s="11">
-        <v>7.541132532348005E-3</v>
+        <v>-6.3141714058368992E-2</v>
       </c>
       <c r="D18" s="7">
-        <v>1774733.5180703874</v>
+        <v>-19771390.353017304</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B19" s="10">
-        <v>64.953233083438136</v>
+        <v>96.791796663160312</v>
       </c>
       <c r="C19" s="11">
-        <v>9.8312860685432213E-3</v>
+        <v>1.5841849522586941E-2</v>
       </c>
       <c r="D19" s="7">
-        <v>1602201.4004691686</v>
+        <v>8162936.1715876246</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="B20" s="10">
-        <v>60.922268730129872</v>
+        <v>21.16110210246006</v>
       </c>
       <c r="C20" s="11">
-        <v>1.0336324343867659E-2</v>
+        <v>3.2877249930907131E-3</v>
       </c>
       <c r="D20" s="7">
-        <v>1557630.1057575955</v>
+        <v>561954.22743292933</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="B21" s="10">
-        <v>16.37746508801774</v>
+        <v>-88.33515802169768</v>
       </c>
       <c r="C21" s="11">
-        <v>2.805911356044577E-3</v>
+        <v>-1.333383067867522E-2</v>
       </c>
       <c r="D21" s="7">
-        <v>653919.4260343723</v>
+        <v>-3166373.7392877531</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B22" s="10">
-        <v>19.060065573427892</v>
+        <v>63.273745910901198</v>
       </c>
       <c r="C22" s="11">
-        <v>2.9900626165222381E-3</v>
+        <v>1.008741283820047E-2</v>
       </c>
       <c r="D22" s="7">
-        <v>496886.37946647842</v>
+        <v>5320119.8299344834</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="B23" s="10">
-        <v>5.8312261739802116</v>
+        <v>-627.57316519149572</v>
       </c>
       <c r="C23" s="11">
-        <v>8.4692460039814677E-4</v>
+        <v>-6.3426120588034096E-2</v>
       </c>
       <c r="D23" s="7">
-        <v>129945.95967406202</v>
+        <v>-13803157.981804352</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B24" s="10">
-        <v>215.71303009085571</v>
+        <v>-199.0457662637773</v>
       </c>
       <c r="C24" s="11">
-        <v>1.8383899094427392E-2</v>
+        <v>-3.066227742647365E-2</v>
       </c>
       <c r="D24" s="7">
-        <v>55869.674793531631</v>
+        <v>-8408389.827163877</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="10">
-        <v>-335.51356560044218</v>
+        <v>-153.2103641765834</v>
       </c>
       <c r="C25" s="11">
-        <v>-3.2077533971400903E-2</v>
+        <v>-2.464769511129361E-2</v>
       </c>
       <c r="D25" s="7">
-        <v>-90588.662712119389</v>
+        <v>-8168104.1453461908</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="B26" s="10">
-        <v>-66.834455190382869</v>
+        <v>-374.89050355977912</v>
       </c>
       <c r="C26" s="11">
-        <v>-1.076236547062936E-2</v>
+        <v>-5.5364901607400929E-2</v>
       </c>
       <c r="D26" s="7">
-        <v>-378082.51301199588</v>
+        <v>-18732341.236623265</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="B27" s="10">
-        <v>-15.326818517935861</v>
+        <v>-277.9953656069174</v>
       </c>
       <c r="C27" s="11">
-        <v>-2.5452010757947008E-3</v>
+        <v>-2.5753600534783819E-2</v>
       </c>
       <c r="D27" s="7">
-        <v>-451129.57625692413</v>
+        <v>-75058.748713867695</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B28" s="10">
-        <v>-20.11148509676968</v>
+        <v>-56.667464603818189</v>
       </c>
       <c r="C28" s="11">
-        <v>-3.2247186701489521E-3</v>
+        <v>-8.8925176508747317E-3</v>
       </c>
       <c r="D28" s="7">
-        <v>-534080.5982298156</v>
+        <v>-3788786.6834112843</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B29" s="10">
-        <v>-30.95326643339558</v>
+        <v>-159.6212714065687</v>
       </c>
       <c r="C29" s="11">
-        <v>-4.2986664010045139E-3</v>
+        <v>-2.279521617349356E-2</v>
       </c>
       <c r="D29" s="7">
-        <v>-622083.27214516769</v>
+        <v>-10914503.485602651</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B30" s="10">
-        <v>-17.75137299089965</v>
+        <v>-431.61880338307952</v>
       </c>
       <c r="C30" s="11">
-        <v>-2.954784976943237E-3</v>
+        <v>-6.1247888014028917E-2</v>
       </c>
       <c r="D30" s="7">
-        <v>-785001.21640356432</v>
+        <v>-23838522.320249174</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B31" s="10">
-        <v>-32.988733816830973</v>
+        <v>115.170060348305</v>
       </c>
       <c r="C31" s="11">
-        <v>-5.2312847223517922E-3</v>
+        <v>1.5714195982867499E-2</v>
       </c>
       <c r="D31" s="7">
-        <v>-956623.79758737294</v>
+        <v>6159064.4873066545</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B32" s="10">
-        <v>-39.784800587216523</v>
+        <v>-55.773383496355557</v>
       </c>
       <c r="C32" s="11">
-        <v>-6.3675940324474656E-3</v>
+        <v>-8.4751940613067012E-3</v>
       </c>
       <c r="D32" s="7">
-        <v>-1172716.6745090878</v>
+        <v>-3686983.1761018285</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="B33" s="10">
-        <v>-59.144832001163188</v>
+        <v>-116.33024407807351</v>
       </c>
       <c r="C33" s="11">
-        <v>-9.3667837025840361E-3</v>
+        <v>-1.676344987723621E-2</v>
       </c>
       <c r="D33" s="7">
-        <v>-1216047.3183599156</v>
+        <v>-1718488.5306433409</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="B34" s="10">
-        <v>-41.24741932654797</v>
+        <v>92.487987765778598</v>
       </c>
       <c r="C34" s="11">
-        <v>-6.8969297215628611E-3</v>
+        <v>1.412391501794397E-2</v>
       </c>
       <c r="D34" s="7">
-        <v>-1480576.1167264394</v>
+        <v>3430379.4662327282</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="B35" s="10">
-        <v>-31.316033788970341</v>
+        <v>-231.97129644078271</v>
       </c>
       <c r="C35" s="11">
-        <v>-5.2582015409199379E-3</v>
+        <v>-3.5254937626352227E-2</v>
       </c>
       <c r="D35" s="7">
-        <v>-2068095.2134067067</v>
+        <v>-24579330.613920674</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="B36" s="10">
-        <v>-62.791985662831387</v>
+        <v>-139.20070980341191</v>
       </c>
       <c r="C36" s="11">
-        <v>-9.4319513623714046E-3</v>
+        <v>-2.078617169953911E-2</v>
       </c>
       <c r="D36" s="7">
-        <v>-2250872.9140626853</v>
+        <v>-11597019.934786951</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B37" s="10">
-        <v>-155.63590889441181</v>
+        <v>-199.3215286065888</v>
       </c>
       <c r="C37" s="11">
-        <v>-2.3145739305083349E-2</v>
+        <v>-2.9485787937163051E-2</v>
       </c>
       <c r="D37" s="7">
-        <v>-2299131.4641426983</v>
+        <v>-9090157.972867785</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6831,251 +9127,251 @@
         <v>69</v>
       </c>
       <c r="B38" s="10">
-        <v>-49.57061333233105</v>
+        <v>-10.73328057926301</v>
       </c>
       <c r="C38" s="11">
-        <v>-8.2004342673667185E-3</v>
+        <v>-1.7204995036937949E-3</v>
       </c>
       <c r="D38" s="7">
-        <v>-2346697.620459218</v>
+        <v>-508118.86926260049</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="B39" s="10">
-        <v>-83.943661520519527</v>
+        <v>-230.2814123305925</v>
       </c>
       <c r="C39" s="11">
-        <v>-1.296521068675038E-2</v>
+        <v>-3.3973076225635057E-2</v>
       </c>
       <c r="D39" s="7">
-        <v>-2576272.9438955043</v>
+        <v>-10161052.178381229</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B40" s="10">
-        <v>-56.919626838701333</v>
+        <v>-42.700280063108039</v>
       </c>
       <c r="C40" s="11">
-        <v>-8.7506516684798807E-3</v>
+        <v>-5.7689134675461551E-3</v>
       </c>
       <c r="D40" s="7">
-        <v>-2640473.0292339353</v>
+        <v>-2169665.280426614</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="B41" s="10">
-        <v>-73.531705407456684</v>
+        <v>22.068665624238751</v>
       </c>
       <c r="C41" s="11">
-        <v>-1.118901449335841E-2</v>
+        <v>3.5594223014285831E-3</v>
       </c>
       <c r="D41" s="7">
-        <v>-2813175.985478478</v>
+        <v>975920.53123508603</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B42" s="10">
-        <v>-64.047585780977897</v>
+        <v>-129.53074267968799</v>
       </c>
       <c r="C42" s="11">
-        <v>-9.1014706260710287E-3</v>
+        <v>-2.0100306993486531E-2</v>
       </c>
       <c r="D42" s="7">
-        <v>-3251311.6445855619</v>
+        <v>-8362051.3898012778</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="B43" s="10">
-        <v>-111.550714103294</v>
+        <v>-380.86604051146787</v>
       </c>
       <c r="C43" s="11">
-        <v>-1.8241135585391529E-2</v>
+        <v>-4.8414618914980112E-2</v>
       </c>
       <c r="D43" s="7">
-        <v>-3542348.7017071526</v>
+        <v>-19401696.969694685</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B44" s="10">
-        <v>-41.386916541917337</v>
+        <v>-177.31658639885151</v>
       </c>
       <c r="C44" s="11">
-        <v>-7.0466760748665314E-3</v>
+        <v>-2.7838481610546691E-2</v>
       </c>
       <c r="D44" s="7">
-        <v>-3888528.4371541142</v>
+        <v>-35669270.49487257</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="10">
-        <v>-44.269902816958172</v>
+        <v>-156.7825148187585</v>
       </c>
       <c r="C45" s="11">
-        <v>-7.1922195897854424E-3</v>
+        <v>-2.2850709398717362E-2</v>
       </c>
       <c r="D45" s="7">
-        <v>-3903078.1168085258</v>
+        <v>-4455053.5498324325</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B46" s="10">
-        <v>-196.70064930578789</v>
+        <v>-4.4828559841935203</v>
       </c>
       <c r="C46" s="11">
-        <v>-2.9316505187265921E-2</v>
+        <v>-7.0569764301142701E-4</v>
       </c>
       <c r="D46" s="7">
-        <v>-3908048.500407394</v>
+        <v>-395233.23927441379</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B47" s="10">
-        <v>-105.3696192474854</v>
+        <v>-339.38434629285263</v>
       </c>
       <c r="C47" s="11">
-        <v>-1.519344864176164E-2</v>
+        <v>-3.9818995125349699E-2</v>
       </c>
       <c r="D47" s="7">
-        <v>-3957419.474887433</v>
+        <v>-14198992.588027222</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="B48" s="10">
-        <v>-124.079231315367</v>
+        <v>-725.52899606624487</v>
       </c>
       <c r="C48" s="11">
-        <v>-1.9256240338729299E-2</v>
+        <v>-6.9342170292401195E-2</v>
       </c>
       <c r="D48" s="7">
-        <v>-4001679.2891519009</v>
+        <v>-20181677.319076702</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B49" s="10">
-        <v>-103.92172912136451</v>
+        <v>-417.59457154915708</v>
       </c>
       <c r="C49" s="11">
-        <v>-1.4186270343902191E-2</v>
+        <v>-5.578163965436056E-2</v>
       </c>
       <c r="D49" s="7">
-        <v>-4263285.0154748578</v>
+        <v>-7988792.9510211498</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B50" s="10">
-        <v>-87.661465398732616</v>
+        <v>-912.31911224630312</v>
       </c>
       <c r="C50" s="11">
-        <v>-1.222256956039613E-2</v>
+        <v>-9.2340791664847877E-2</v>
       </c>
       <c r="D50" s="7">
-        <v>-4454210.5491077024</v>
+        <v>-17969037.234803185</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="B51" s="10">
-        <v>-212.88620001593429</v>
+        <v>-58.715991569773003</v>
       </c>
       <c r="C51" s="11">
-        <v>-3.1351272304295907E-2</v>
+        <v>-9.5251566875029781E-3</v>
       </c>
       <c r="D51" s="7">
-        <v>-4462946.2971340464</v>
+        <v>-10594684.160854056</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="B52" s="10">
-        <v>-191.77350535611089</v>
+        <v>-457.1065166577755</v>
       </c>
       <c r="C52" s="11">
-        <v>-3.0077243840369031E-2</v>
+        <v>-5.2030325130373201E-2</v>
       </c>
       <c r="D52" s="7">
-        <v>-4515786.6173730213</v>
+        <v>-17024246.553143863</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B53" s="10">
-        <v>-126.70673980818989</v>
+        <v>-247.01530805932629</v>
       </c>
       <c r="C53" s="11">
-        <v>-1.9738382116971431E-2</v>
+        <v>-3.4798528594295219E-2</v>
       </c>
       <c r="D53" s="7">
-        <v>-4541803.0884245671</v>
+        <v>-8472131.0358187724</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B54" s="10">
-        <v>-204.80804311058179</v>
+        <v>-298.50438400887828</v>
       </c>
       <c r="C54" s="11">
-        <v>-3.2080686803145242E-2</v>
+        <v>-4.1113319656525649E-2</v>
       </c>
       <c r="D54" s="7">
-        <v>-4610331.4544407511</v>
+        <v>-4367119.1380498894</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="B55" s="10">
-        <v>-75.82157279801504</v>
+        <v>-239.96612684592131</v>
       </c>
       <c r="C55" s="11">
-        <v>-1.2368163960417729E-2</v>
+        <v>-3.4572441338435067E-2</v>
       </c>
       <c r="D55" s="7">
-        <v>-4670040.2225617412</v>
+        <v>-8292149.4962242339</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -7083,1147 +9379,1147 @@
         <v>87</v>
       </c>
       <c r="B56" s="10">
-        <v>-201.32346563275951</v>
+        <v>-166.11470633046611</v>
       </c>
       <c r="C56" s="11">
-        <v>-3.1559079207472363E-2</v>
+        <v>-2.5231758440225179E-2</v>
       </c>
       <c r="D56" s="7">
-        <v>-4716706.8145771064</v>
+        <v>-3891818.3972633253</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B57" s="10">
-        <v>-333.03008648875311</v>
+        <v>-225.99079769835041</v>
       </c>
       <c r="C57" s="11">
-        <v>-4.7337551578839121E-2</v>
+        <v>-3.5012333226845493E-2</v>
       </c>
       <c r="D57" s="7">
-        <v>-4872230.1653304584</v>
+        <v>-43123225.030602679</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="B58" s="10">
-        <v>-140.19491334321989</v>
+        <v>-19.081461952408969</v>
       </c>
       <c r="C58" s="11">
-        <v>-2.0336584067692561E-2</v>
+        <v>-2.627422794623357E-3</v>
       </c>
       <c r="D58" s="7">
-        <v>-5079892.5875349017</v>
+        <v>-968651.33455208887</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B59" s="10">
-        <v>-120.1135267855752</v>
+        <v>-72.368628163694666</v>
       </c>
       <c r="C59" s="11">
-        <v>-1.8093984193141122E-2</v>
+        <v>-9.5539070385002312E-3</v>
       </c>
       <c r="D59" s="7">
-        <v>-5144822.6928065429</v>
+        <v>-2981949.3234850387</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B60" s="10">
-        <v>-216.7287196486277</v>
+        <v>-410.58791768206447</v>
       </c>
       <c r="C60" s="11">
-        <v>-3.2231763090909797E-2</v>
+        <v>-6.0348388627605498E-2</v>
       </c>
       <c r="D60" s="7">
-        <v>-5402071.7016018694</v>
+        <v>-6855381.1675785892</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B61" s="10">
-        <v>-247.4789857790656</v>
+        <v>303.19399945441</v>
       </c>
       <c r="C61" s="11">
-        <v>-3.6545083442229058E-2</v>
+        <v>2.5037522929836079E-2</v>
       </c>
       <c r="D61" s="7">
-        <v>-5412736.637466833</v>
+        <v>78527.245858692186</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B62" s="10">
-        <v>-194.08563966921881</v>
+        <v>-219.609888446761</v>
       </c>
       <c r="C62" s="11">
-        <v>-2.9193485799833611E-2</v>
+        <v>-2.2547251320682919E-2</v>
       </c>
       <c r="D62" s="7">
-        <v>-5515040.4940206874</v>
+        <v>-5034117.4728651028</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B63" s="10">
-        <v>-151.52577231151921</v>
+        <v>-1308.7416635265399</v>
       </c>
       <c r="C63" s="11">
-        <v>-2.237896461931721E-2</v>
+        <v>-0.12565205514519501</v>
       </c>
       <c r="D63" s="7">
-        <v>-6116943.9024437191</v>
+        <v>-17241362.675298639</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B64" s="10">
-        <v>-93.50607032764492</v>
+        <v>-34.110022800145089</v>
       </c>
       <c r="C64" s="11">
-        <v>-1.4663135020868469E-2</v>
+        <v>-5.245433385416276E-3</v>
       </c>
       <c r="D64" s="7">
-        <v>-6184023.9611187968</v>
+        <v>-7806181.0478816042</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B65" s="10">
-        <v>-165.2719126338188</v>
+        <v>-62.692288208779253</v>
       </c>
       <c r="C65" s="11">
-        <v>-2.497535170854415E-2</v>
+        <v>-8.7592028242362563E-3</v>
       </c>
       <c r="D65" s="7">
-        <v>-6190755.303437585</v>
+        <v>-2354565.6144012269</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="B66" s="10">
-        <v>-124.6435661960159</v>
+        <v>112.0193083994191</v>
       </c>
       <c r="C66" s="11">
-        <v>-1.8642744447367691E-2</v>
+        <v>1.6429031300672529E-2</v>
       </c>
       <c r="D66" s="7">
-        <v>-6224575.052262838</v>
+        <v>2763180.2802884709</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B67" s="10">
-        <v>-272.67502659573069</v>
+        <v>-139.12652800630801</v>
       </c>
       <c r="C67" s="11">
-        <v>-2.8891997499348902E-2</v>
+        <v>-2.0661305429672368E-2</v>
       </c>
       <c r="D67" s="7">
-        <v>-6250529.6346539343</v>
+        <v>-8821526.1980319694</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B68" s="10">
-        <v>-142.24557064516191</v>
+        <v>16.399041192207729</v>
       </c>
       <c r="C68" s="11">
-        <v>-2.303983890536487E-2</v>
+        <v>2.2067606114153371E-3</v>
       </c>
       <c r="D68" s="7">
-        <v>-6264708.299568898</v>
+        <v>329579.73036039487</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B69" s="10">
-        <v>-72.958264515096744</v>
+        <v>-652.77123709359694</v>
       </c>
       <c r="C69" s="11">
-        <v>-1.2150304129348481E-2</v>
+        <v>-6.6514285023023145E-2</v>
       </c>
       <c r="D69" s="7">
-        <v>-6355066.1097197598</v>
+        <v>-23747491.219846509</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B70" s="10">
-        <v>-97.821989501906501</v>
+        <v>-209.53127620338461</v>
       </c>
       <c r="C70" s="11">
-        <v>-1.585187811024891E-2</v>
+        <v>-3.1620063127638098E-2</v>
       </c>
       <c r="D70" s="7">
-        <v>-6574077.8934808755</v>
+        <v>-36679497.555783495</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="B71" s="10">
-        <v>-134.64797311456189</v>
+        <v>-61.582960953765912</v>
       </c>
       <c r="C71" s="11">
-        <v>-2.043267274909033E-2</v>
+        <v>-9.2423683914655275E-3</v>
       </c>
       <c r="D71" s="7">
-        <v>-6625757.4610213619</v>
+        <v>-7402702.987369339</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="B72" s="10">
-        <v>-195.47762599377171</v>
+        <v>100.390596668547</v>
       </c>
       <c r="C72" s="11">
-        <v>-3.2558104713215519E-2</v>
+        <v>1.462550447352884E-2</v>
       </c>
       <c r="D72" s="7">
-        <v>-6950597.9474605406</v>
+        <v>5404678.3575462308</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B73" s="10">
-        <v>-181.11467325946251</v>
+        <v>24.04533971084766</v>
       </c>
       <c r="C73" s="11">
-        <v>-2.7066286772823859E-2</v>
+        <v>3.9726396552433041E-3</v>
       </c>
       <c r="D73" s="7">
-        <v>-7059397.1769706998</v>
+        <v>2213962.6312064431</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B74" s="10">
-        <v>-438.05673956016562</v>
+        <v>-415.21479471787461</v>
       </c>
       <c r="C74" s="11">
-        <v>-6.6447763741735555E-2</v>
+        <v>-4.7474168009242652E-2</v>
       </c>
       <c r="D74" s="7">
-        <v>-7314014.3520663055</v>
+        <v>-15298796.71877745</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="B75" s="10">
-        <v>-276.55899373637573</v>
+        <v>113.4140697621624</v>
       </c>
       <c r="C75" s="11">
-        <v>-4.2256143109782318E-2</v>
+        <v>1.7483738172825451E-2</v>
       </c>
       <c r="D75" s="7">
-        <v>-7360064.5003061676</v>
+        <v>11317363.193426661</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="B76" s="10">
-        <v>-285.27304617957452</v>
+        <v>-510.32734917672411</v>
       </c>
       <c r="C76" s="11">
-        <v>-4.7868430646109017E-2</v>
+        <v>-6.8471011862569542E-2</v>
       </c>
       <c r="D76" s="7">
-        <v>-7362041.5027562799</v>
+        <v>-36077591.950048514</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="B77" s="10">
-        <v>-94.180644705677878</v>
+        <v>-572.26549831824286</v>
       </c>
       <c r="C77" s="11">
-        <v>-1.533111556518574E-2</v>
+        <v>-7.8743289284731288E-2</v>
       </c>
       <c r="D77" s="7">
-        <v>-7508269.3572260514</v>
+        <v>-22102324.208796334</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B78" s="10">
-        <v>-137.91957314381759</v>
+        <v>-154.28081418992679</v>
       </c>
       <c r="C78" s="11">
-        <v>-2.1224922543040651E-2</v>
+        <v>-2.04159603382662E-2</v>
       </c>
       <c r="D78" s="7">
-        <v>-7701842.7230702052</v>
+        <v>-12699548.079636728</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B79" s="10">
-        <v>-193.16817796545729</v>
+        <v>-327.2737599290931</v>
       </c>
       <c r="C79" s="11">
-        <v>-3.2468154267556337E-2</v>
+        <v>-4.8319278523588971E-2</v>
       </c>
       <c r="D79" s="7">
-        <v>-7718324.3028767938</v>
+        <v>-13251478.176408945</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B80" s="10">
-        <v>-263.77183013384001</v>
+        <v>284.77376972487491</v>
       </c>
       <c r="C80" s="11">
-        <v>-3.9912158066605197E-2</v>
+        <v>3.950080929968891E-2</v>
       </c>
       <c r="D80" s="7">
-        <v>-7943224.892650458</v>
+        <v>7679351.8612858392</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B81" s="10">
-        <v>-311.50397143138798</v>
+        <v>-412.00352063359969</v>
       </c>
       <c r="C81" s="11">
-        <v>-4.7270497010906243E-2</v>
+        <v>-5.2130552987654011E-2</v>
       </c>
       <c r="D81" s="7">
-        <v>-8002069.7701152097</v>
+        <v>-8260876.5904639903</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B82" s="10">
-        <v>-449.09528803481498</v>
+        <v>-15.267296300001361</v>
       </c>
       <c r="C82" s="11">
-        <v>-6.19106580050931E-2</v>
+        <v>-2.2743117570206421E-3</v>
       </c>
       <c r="D82" s="7">
-        <v>-8591417.4077500273</v>
+        <v>-708242.24170891312</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B83" s="10">
-        <v>-203.96010486389599</v>
+        <v>-143.01691849365579</v>
       </c>
       <c r="C83" s="11">
-        <v>-2.999821212616172E-2</v>
+        <v>-2.0709612290482519E-2</v>
       </c>
       <c r="D83" s="7">
-        <v>-8701957.8740181234</v>
+        <v>-5574441.9405864691</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B84" s="10">
-        <v>-446.33610795728151</v>
+        <v>-272.07402989427828</v>
       </c>
       <c r="C84" s="11">
-        <v>-5.8283270916916867E-2</v>
+        <v>-3.0298701234742209E-2</v>
       </c>
       <c r="D84" s="7">
-        <v>-8949262.1325974725</v>
+        <v>-15890483.715975324</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B85" s="10">
-        <v>-227.62175752209529</v>
+        <v>-336.88087101210112</v>
       </c>
       <c r="C85" s="11">
-        <v>-3.4442900710277113E-2</v>
+        <v>-4.9472698366570089E-2</v>
       </c>
       <c r="D85" s="7">
-        <v>-9065491.7368324902</v>
+        <v>-35789213.093712591</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="B86" s="10">
-        <v>-238.85968667341879</v>
+        <v>-457.94235728889362</v>
       </c>
       <c r="C86" s="11">
-        <v>-3.168479914847433E-2</v>
+        <v>-6.2660814355092742E-2</v>
       </c>
       <c r="D86" s="7">
-        <v>-9091119.1046336554</v>
+        <v>-9861788.6642163247</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B87" s="10">
-        <v>-134.20154349405951</v>
+        <v>-163.52045022370481</v>
       </c>
       <c r="C87" s="11">
-        <v>-2.0585154539684569E-2</v>
+        <v>-2.4841959235101681E-2</v>
       </c>
       <c r="D87" s="7">
-        <v>-9314459.4285204411</v>
+        <v>-3680927.0947607071</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B88" s="10">
-        <v>-177.35800540678159</v>
+        <v>-169.9855786819362</v>
       </c>
       <c r="C88" s="11">
-        <v>-2.9592930305107231E-2</v>
+        <v>-2.632785634436674E-2</v>
       </c>
       <c r="D88" s="7">
-        <v>-9439879.8377759494</v>
+        <v>-8938776.6477789562</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B89" s="10">
-        <v>-274.66662639613702</v>
+        <v>24.68282704737339</v>
       </c>
       <c r="C89" s="11">
-        <v>-4.0839130773677068E-2</v>
+        <v>3.9716822240758454E-3</v>
       </c>
       <c r="D89" s="7">
-        <v>-9491242.6084317137</v>
+        <v>726514.33131238841</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B90" s="10">
-        <v>-282.4431910873991</v>
+        <v>8.252467457063176</v>
       </c>
       <c r="C90" s="11">
-        <v>-4.1063750473939183E-2</v>
+        <v>1.268049016698525E-3</v>
       </c>
       <c r="D90" s="7">
-        <v>-9687236.5679156147</v>
+        <v>239309.1775536465</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="B91" s="10">
-        <v>-232.44681056379071</v>
+        <v>-102.9983439594243</v>
       </c>
       <c r="C91" s="11">
-        <v>-3.6954348137252513E-2</v>
+        <v>-1.5880603130096541E-2</v>
       </c>
       <c r="D91" s="7">
-        <v>-9819366.842051493</v>
+        <v>-7948227.7058328344</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="B92" s="10">
-        <v>-93.309947651737275</v>
+        <v>-243.35147833352951</v>
       </c>
       <c r="C92" s="11">
-        <v>-1.6001439596502239E-2</v>
+        <v>-3.631368347765207E-2</v>
       </c>
       <c r="D92" s="7">
-        <v>-10047101.958426986</v>
+        <v>-10456082.969556762</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B93" s="10">
-        <v>-486.81790086842187</v>
+        <v>-219.77951715970721</v>
       </c>
       <c r="C93" s="11">
-        <v>-6.8745179276333279E-2</v>
+        <v>-2.8782240783918781E-2</v>
       </c>
       <c r="D93" s="7">
-        <v>-10483623.495201465</v>
+        <v>-9407222.672986947</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B94" s="10">
-        <v>-304.08954460427498</v>
+        <v>-123.1404297119079</v>
       </c>
       <c r="C94" s="11">
-        <v>-4.6324240392847098E-2</v>
+        <v>-1.9339262143553419E-2</v>
       </c>
       <c r="D94" s="7">
-        <v>-10562550.331829492</v>
+        <v>-14423561.672585484</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B95" s="10">
-        <v>-165.2284718679648</v>
+        <v>-166.02283019781041</v>
       </c>
       <c r="C95" s="11">
-        <v>-2.6460936539087761E-2</v>
+        <v>-2.366069341447952E-2</v>
       </c>
       <c r="D95" s="7">
-        <v>-10666571.84414427</v>
+        <v>-7083364.0503895814</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="B96" s="10">
-        <v>-234.40021981966581</v>
+        <v>-41.907997465481458</v>
       </c>
       <c r="C96" s="11">
-        <v>-3.5785495362045672E-2</v>
+        <v>-6.7629656875480837E-3</v>
       </c>
       <c r="D96" s="7">
-        <v>-10689939.224985769</v>
+        <v>-3683692.0232170876</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B97" s="10">
-        <v>-204.25067380210839</v>
+        <v>-112.42396886944969</v>
       </c>
       <c r="C97" s="11">
-        <v>-3.2648062227546348E-2</v>
+        <v>-1.639128664787581E-2</v>
       </c>
       <c r="D97" s="7">
-        <v>-10740623.807220772</v>
+        <v>-4142373.5569637436</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B98" s="10">
-        <v>-139.94781633245839</v>
+        <v>18.736116166702232</v>
       </c>
       <c r="C98" s="11">
-        <v>-2.226862320684975E-2</v>
+        <v>2.7333603071804098E-3</v>
       </c>
       <c r="D98" s="7">
-        <v>-10799563.064651314</v>
+        <v>652569.55802815536</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B99" s="10">
-        <v>-259.60458383605419</v>
+        <v>52.482340112502243</v>
       </c>
       <c r="C99" s="11">
-        <v>-3.5086515005628871E-2</v>
+        <v>7.3859703954453071E-3</v>
       </c>
       <c r="D99" s="7">
-        <v>-11111855.001934627</v>
+        <v>1169542.7082370562</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B100" s="10">
-        <v>-176.28672677339449</v>
+        <v>-211.4122278319783</v>
       </c>
       <c r="C100" s="11">
-        <v>-2.7018293476808949E-2</v>
+        <v>-3.0250338795489329E-2</v>
       </c>
       <c r="D100" s="7">
-        <v>-11177724.341157237</v>
+        <v>-4623902.5410271138</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="B101" s="10">
-        <v>-264.32056313405792</v>
+        <v>-99.452080955615202</v>
       </c>
       <c r="C101" s="11">
-        <v>-4.0243656201380713E-2</v>
+        <v>-1.483008343505521E-2</v>
       </c>
       <c r="D101" s="7">
-        <v>-11663012.688008739</v>
+        <v>-5553702.5568044195</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B102" s="10">
-        <v>-302.83655536863353</v>
+        <v>-159.0855633473893</v>
       </c>
       <c r="C102" s="11">
-        <v>-4.5156253377475968E-2</v>
+        <v>-2.297453253484372E-2</v>
       </c>
       <c r="D102" s="7">
-        <v>-11806688.784156915</v>
+        <v>-3160711.9725859305</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B103" s="10">
-        <v>-276.41866215275792</v>
+        <v>62.780469006446758</v>
       </c>
       <c r="C103" s="11">
-        <v>-4.2569070331338277E-2</v>
+        <v>9.5431106303782709E-3</v>
       </c>
       <c r="D103" s="7">
-        <v>-11876880.65671755</v>
+        <v>1636655.4367635637</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B104" s="10">
-        <v>-101.1933976295086</v>
+        <v>-398.15587319604492</v>
       </c>
       <c r="C104" s="11">
-        <v>-1.5673477931672179E-2</v>
+        <v>-5.8154162268276521E-2</v>
       </c>
       <c r="D104" s="7">
-        <v>-12164154.74885034</v>
+        <v>-14301559.887265336</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="B105" s="10">
-        <v>-316.37798008931532</v>
+        <v>-171.3327860078862</v>
       </c>
       <c r="C105" s="11">
-        <v>-4.4602491619251998E-2</v>
+        <v>-2.4417942929023221E-2</v>
       </c>
       <c r="D105" s="7">
-        <v>-12380661.305845132</v>
+        <v>-7066106.7605372425</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="B106" s="10">
-        <v>-156.53577062707521</v>
+        <v>-27.552924092478861</v>
       </c>
       <c r="C106" s="11">
-        <v>-2.5918072532176262E-2</v>
+        <v>-4.2991691162477252E-3</v>
       </c>
       <c r="D106" s="7">
-        <v>-12438880.209224591</v>
+        <v>-155866.8915911529</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="B107" s="10">
-        <v>-264.44521065966819</v>
+        <v>-99.147333567589158</v>
       </c>
       <c r="C107" s="11">
-        <v>-4.0356508480972282E-2</v>
+        <v>-1.3935940989260759E-2</v>
       </c>
       <c r="D107" s="7">
-        <v>-12657934.453435678</v>
+        <v>-3592554.0581548093</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B108" s="10">
-        <v>-324.36788378869642</v>
+        <v>-374.77137523538482</v>
       </c>
       <c r="C108" s="11">
-        <v>-5.0016514263056873E-2</v>
+        <v>-5.223187144645447E-2</v>
       </c>
       <c r="D108" s="7">
-        <v>-12719275.643064259</v>
+        <v>-20984573.613554902</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B109" s="10">
-        <v>-592.00333401565149</v>
+        <v>-293.21490389312112</v>
       </c>
       <c r="C109" s="11">
-        <v>-6.4100311934926935E-2</v>
+        <v>-4.3809785376666237E-2</v>
       </c>
       <c r="D109" s="7">
-        <v>-12966057.021610798</v>
+        <v>-11497689.418909011</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B110" s="10">
-        <v>-191.99341138293309</v>
+        <v>-95.446052835394767</v>
       </c>
       <c r="C110" s="11">
-        <v>-2.8205037504145158E-2</v>
+        <v>-1.418613549951564E-2</v>
       </c>
       <c r="D110" s="7">
-        <v>-13185435.516840003</v>
+        <v>-6624576.4661198268</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B111" s="10">
-        <v>-428.26037774499042</v>
+        <v>-350.94463281913607</v>
       </c>
       <c r="C111" s="11">
-        <v>-6.1504464144549242E-2</v>
+        <v>-5.4851394402573028E-2</v>
       </c>
       <c r="D111" s="7">
-        <v>-13460223.672525048</v>
+        <v>-12916517.210908303</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="B112" s="10">
-        <v>-162.9211010653116</v>
+        <v>-397.91303679107932</v>
       </c>
       <c r="C112" s="11">
-        <v>-2.519299746324721E-2</v>
+        <v>-5.5372791921190601E-2</v>
       </c>
       <c r="D112" s="7">
-        <v>-13567987.836168617</v>
+        <v>-12506406.746343624</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B113" s="10">
-        <v>-357.66030709202369</v>
+        <v>112.68541448665751</v>
       </c>
       <c r="C113" s="11">
-        <v>-5.4496735826825571E-2</v>
+        <v>1.8215762715747541E-2</v>
       </c>
       <c r="D113" s="7">
-        <v>-14481844.664309585</v>
+        <v>4165190.9756703214</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="B114" s="10">
-        <v>-666.3846878017066</v>
+        <v>267.91513739445242</v>
       </c>
       <c r="C114" s="11">
-        <v>-6.9505517827918029E-2</v>
+        <v>4.344520487201331E-2</v>
       </c>
       <c r="D114" s="7">
-        <v>-14656798.015854636</v>
+        <v>18286011.872583561</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B115" s="10">
-        <v>-426.35870353422428</v>
+        <v>-2.5211615107828038</v>
       </c>
       <c r="C115" s="11">
-        <v>-6.4267780331057955E-2</v>
+        <v>-4.0847849477254622E-4</v>
       </c>
       <c r="D115" s="7">
-        <v>-15314591.45159757</v>
+        <v>-90497.092429548749</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B116" s="10">
-        <v>-187.11819337987339</v>
+        <v>-175.35378974871949</v>
       </c>
       <c r="C116" s="11">
-        <v>-2.556302011776013E-2</v>
+        <v>-2.502259382806982E-2</v>
       </c>
       <c r="D116" s="7">
-        <v>-15336862.043091252</v>
+        <v>-3676116.8482921557</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B117" s="10">
-        <v>-534.10573758746887</v>
+        <v>-229.43627913451471</v>
       </c>
       <c r="C117" s="11">
-        <v>-7.9304715476166909E-2</v>
+        <v>-3.3639412243684497E-2</v>
       </c>
       <c r="D117" s="7">
-        <v>-15486662.914217453</v>
+        <v>-6909244.109856776</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B118" s="10">
-        <v>-471.22734670333188</v>
+        <v>-514.63604964082788</v>
       </c>
       <c r="C118" s="11">
-        <v>-5.2161790374867789E-2</v>
+        <v>-7.4863277964124286E-2</v>
       </c>
       <c r="D118" s="7">
-        <v>-15639093.182390178</v>
+        <v>-15375009.301044554</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="B119" s="10">
-        <v>-380.32599921661398</v>
+        <v>-707.78243299423593</v>
       </c>
       <c r="C119" s="11">
-        <v>-4.6051628641126108E-2</v>
+        <v>-7.0967307206060148E-2</v>
       </c>
       <c r="D119" s="7">
-        <v>-15911888.992225088</v>
+        <v>-28563621.757131882</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B120" s="10">
-        <v>-538.66643675232172</v>
+        <v>-243.15061985087229</v>
       </c>
       <c r="C120" s="11">
-        <v>-8.0868435440852759E-2</v>
+        <v>-3.599871174221303E-2</v>
       </c>
       <c r="D120" s="7">
-        <v>-16092929.131193988</v>
+        <v>-6470967.4460912645</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B121" s="10">
-        <v>-72.27248946216514</v>
+        <v>201.8403911303094</v>
       </c>
       <c r="C121" s="11">
-        <v>-1.1471940121499319E-2</v>
+        <v>3.2467073900370291E-2</v>
       </c>
       <c r="D121" s="7">
-        <v>-16536957.403795855</v>
+        <v>22686960.883242343</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="B122" s="10">
-        <v>-454.72858233570793</v>
+        <v>-160.54122347972589</v>
       </c>
       <c r="C122" s="11">
-        <v>-5.3657111011623293E-2</v>
+        <v>-2.6146772953488991E-2</v>
       </c>
       <c r="D122" s="7">
-        <v>-16754701.980450327</v>
+        <v>-6414665.395967667</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B123" s="10">
-        <v>-112.48822214860409</v>
+        <v>-43.541862136514283</v>
       </c>
       <c r="C123" s="11">
-        <v>-1.843676416747364E-2</v>
+        <v>-6.5164066489089567E-3</v>
       </c>
       <c r="D123" s="7">
-        <v>-16906192.371380154</v>
+        <v>-1336321.5199006917</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="B124" s="10">
-        <v>-96.358652899988556</v>
+        <v>-269.3573511948689</v>
       </c>
       <c r="C124" s="11">
-        <v>-1.6129454796691371E-2</v>
+        <v>-3.8917769916310019E-2</v>
       </c>
       <c r="D124" s="7">
-        <v>-17386907.149947487</v>
+        <v>-10501435.051034354</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B125" s="10">
-        <v>-1325.4081683819641</v>
+        <v>126.41255783042379</v>
       </c>
       <c r="C125" s="11">
-        <v>-0.1313275374530993</v>
+        <v>2.04052834654147E-2</v>
       </c>
       <c r="D125" s="7">
-        <v>-17460927.210263994</v>
+        <v>12189899.745308852</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="B126" s="10">
-        <v>-495.30381244383528</v>
+        <v>-191.88566482699659</v>
       </c>
       <c r="C126" s="11">
-        <v>-5.8183693648950603E-2</v>
+        <v>-2.8134421426585291E-2</v>
       </c>
       <c r="D126" s="7">
-        <v>-18446847.538751978</v>
+        <v>-7642230.3730647927</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B127" s="10">
-        <v>-940.41141013965898</v>
+        <v>-76.69043440553105</v>
       </c>
       <c r="C127" s="11">
-        <v>-9.8232500805158773E-2</v>
+        <v>-1.217946902578804E-2</v>
       </c>
       <c r="D127" s="7">
-        <v>-18522343.134110723</v>
+        <v>-11526035.458110478</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B128" s="10">
-        <v>-158.59337423066339</v>
+        <v>-32.070548642188442</v>
       </c>
       <c r="C128" s="11">
-        <v>-2.570483170943649E-2</v>
+        <v>-4.7286056556584688E-3</v>
       </c>
       <c r="D128" s="7">
-        <v>-18576200.517011832</v>
+        <v>-1226955.0499528453</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B129" s="10">
-        <v>-363.00807239713498</v>
+        <v>-95.360085403845005</v>
       </c>
       <c r="C129" s="11">
-        <v>-5.632073241414115E-2</v>
+        <v>-1.43427312380352E-2</v>
       </c>
       <c r="D129" s="7">
-        <v>-18594725.500470843</v>
+        <v>-3089666.7670845781</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="B130" s="10">
-        <v>-318.3993469272973</v>
+        <v>-261.45902017563282</v>
       </c>
       <c r="C130" s="11">
-        <v>-3.6593131955922183E-2</v>
+        <v>-3.8530584030959547E-2</v>
       </c>
       <c r="D130" s="7">
-        <v>-18596113.8572888</v>
+        <v>-8963076.6706408691</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B131" s="10">
-        <v>-347.8116165905667</v>
+        <v>227.4562190860934</v>
       </c>
       <c r="C131" s="11">
-        <v>-4.8214089497761847E-2</v>
+        <v>3.4730879331613902E-2</v>
       </c>
       <c r="D131" s="7">
-        <v>-18767914.831226978</v>
+        <v>6555629.418389841</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="B132" s="10">
-        <v>-403.48807060352829</v>
+        <v>-509.40070446674139</v>
       </c>
       <c r="C132" s="11">
-        <v>-6.1496625047597009E-2</v>
+        <v>-7.3289341415653797E-2</v>
       </c>
       <c r="D132" s="7">
-        <v>-20161290.167881798</v>
+        <v>-14770328.126365399</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B133" s="10">
-        <v>-432.55907894742899</v>
+        <v>210.99721162200331</v>
       </c>
       <c r="C133" s="11">
-        <v>-6.5200930716414862E-2</v>
+        <v>3.2044319216342883E-2</v>
       </c>
       <c r="D133" s="7">
-        <v>-20453772.327568654</v>
+        <v>3844474.6943587111</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="B134" s="10">
-        <v>-474.69679948856719</v>
+        <v>-1098.1458027730259</v>
       </c>
       <c r="C134" s="11">
-        <v>-6.9222957410245423E-2</v>
+        <v>-0.10453744570896679</v>
       </c>
       <c r="D134" s="7">
-        <v>-21002959.893371657</v>
+        <v>-48871331.733709358</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B135" s="10">
-        <v>-416.13086710309562</v>
+        <v>92.746307508089558</v>
       </c>
       <c r="C135" s="11">
-        <v>-5.4591457353944439E-2</v>
+        <v>1.5396210090717901E-2</v>
       </c>
       <c r="D135" s="7">
-        <v>-21198122.501098793</v>
+        <v>3659027.3238091492</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B136" s="10">
-        <v>-764.26016899584101</v>
+        <v>-333.62176691373679</v>
       </c>
       <c r="C136" s="11">
-        <v>-7.5383165846059752E-2</v>
+        <v>-5.0155192215230349E-2</v>
       </c>
       <c r="D136" s="7">
-        <v>-21259042.990872812</v>
+        <v>-17089441.388389252</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="B137" s="10">
-        <v>-485.13386424115009</v>
+        <v>-84.394414842761762</v>
       </c>
       <c r="C137" s="11">
-        <v>-6.0453248253197527E-2</v>
+        <v>-1.2231034646769331E-2</v>
       </c>
       <c r="D137" s="7">
-        <v>-21810648.268553626</v>
+        <v>-4214572.6828326797</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -8231,223 +10527,223 @@
         <v>169</v>
       </c>
       <c r="B138" s="10">
-        <v>-548.67229447365298</v>
+        <v>-516.84204458559907</v>
       </c>
       <c r="C138" s="11">
-        <v>-6.9669757423296397E-2</v>
+        <v>-6.3591433244846174E-2</v>
       </c>
       <c r="D138" s="7">
-        <v>-22264847.373593602</v>
+        <v>-20973191.748261318</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="B139" s="10">
-        <v>-397.93695279309668</v>
+        <v>-428.58234488542621</v>
       </c>
       <c r="C139" s="11">
-        <v>-5.5389729612404848E-2</v>
+        <v>-4.5969077676561547E-2</v>
       </c>
       <c r="D139" s="7">
-        <v>-22310335.258344967</v>
+        <v>-14223790.862057526</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="B140" s="10">
-        <v>-596.61777118667305</v>
+        <v>-74.641145308834894</v>
       </c>
       <c r="C140" s="11">
-        <v>-8.4723261209490919E-2</v>
+        <v>-1.1826801868311421E-2</v>
       </c>
       <c r="D140" s="7">
-        <v>-23042869.867657281</v>
+        <v>-2370266.8898547064</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B141" s="10">
-        <v>-415.9655992944854</v>
+        <v>-121.8806298135605</v>
       </c>
       <c r="C141" s="11">
-        <v>-5.9930108872749521E-2</v>
+        <v>-1.9553896177852529E-2</v>
       </c>
       <c r="D141" s="7">
-        <v>-23620190.590338059</v>
+        <v>-9685061.4271898642</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="B142" s="10">
-        <v>-690.13567666432573</v>
+        <v>-156.21624423374311</v>
       </c>
       <c r="C142" s="11">
-        <v>-7.2573636670396291E-2</v>
+        <v>-2.374024148337173E-2</v>
       </c>
       <c r="D142" s="7">
-        <v>-25106790.849209838</v>
+        <v>-3678502.0110940658</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B143" s="10">
-        <v>-459.83396512735641</v>
+        <v>-37.425404402776621</v>
       </c>
       <c r="C143" s="11">
-        <v>-6.7341424385260806E-2</v>
+        <v>-5.9154591103850462E-3</v>
       </c>
       <c r="D143" s="7">
-        <v>-25396859.810966458</v>
+        <v>-2305124.2206780189</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="B144" s="10">
-        <v>-264.69871486328162</v>
+        <v>-59.169561321409667</v>
       </c>
       <c r="C144" s="11">
-        <v>-4.1517196908095737E-2</v>
+        <v>-9.820204768933527E-3</v>
       </c>
       <c r="D144" s="7">
-        <v>-28047078.778841026</v>
+        <v>-6346615.9016763829</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B145" s="10">
-        <v>-744.09608374081654</v>
+        <v>-552.68115041302008</v>
       </c>
       <c r="C145" s="11">
-        <v>-7.6997753829105231E-2</v>
+        <v>-5.7985599715302483E-2</v>
       </c>
       <c r="D145" s="7">
-        <v>-30029113.603486262</v>
+        <v>-12104822.556345966</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="B146" s="10">
-        <v>-538.15927421010747</v>
+        <v>-404.59561738901363</v>
       </c>
       <c r="C146" s="11">
-        <v>-7.4517662195066392E-2</v>
+        <v>-5.9093409403250363E-2</v>
       </c>
       <c r="D146" s="7">
-        <v>-38045169.890283547</v>
+        <v>-19131506.066048205</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="B147" s="10">
-        <v>-365.51992541210348</v>
+        <v>6.108500378077224</v>
       </c>
       <c r="C147" s="11">
-        <v>-5.540747480052377E-2</v>
+        <v>9.9391878596488681E-4</v>
       </c>
       <c r="D147" s="7">
-        <v>-38808895.320667379</v>
+        <v>403194.62170517619</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="B148" s="10">
-        <v>-210.76078919220069</v>
+        <v>-18.8619134716273</v>
       </c>
       <c r="C148" s="11">
-        <v>-3.4148881869979553E-2</v>
+        <v>-2.894469297411661E-3</v>
       </c>
       <c r="D148" s="7">
-        <v>-42396956.495086879</v>
+        <v>-387810.37193339312</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="B149" s="10">
-        <v>-243.38994913999801</v>
+        <v>-95.434423713071737</v>
       </c>
       <c r="C149" s="11">
-        <v>-3.7905916753062867E-2</v>
+        <v>-1.403265746724958E-2</v>
       </c>
       <c r="D149" s="7">
-        <v>-42606627.546702355</v>
+        <v>-4696137.1220728345</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B150" s="10">
-        <v>-468.60768815856233</v>
+        <v>-256.14903312111443</v>
       </c>
       <c r="C150" s="11">
-        <v>-6.6737042750085074E-2</v>
+        <v>-4.1647667228766228E-2</v>
       </c>
       <c r="D150" s="7">
-        <v>-43053565.653411992</v>
+        <v>-6610438.0977566</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="B151" s="10">
-        <v>-256.62247518544342</v>
+        <v>-351.37806850952887</v>
       </c>
       <c r="C151" s="11">
-        <v>-4.1015733166334112E-2</v>
+        <v>-4.8152316904170767E-2</v>
       </c>
       <c r="D151" s="7">
-        <v>-48902620.427526064</v>
+        <v>-14203931.35239494</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B152" s="10">
-        <v>-1123.2331455020339</v>
+        <v>-56.410445291127871</v>
       </c>
       <c r="C152" s="11">
-        <v>-0.1103499851152492</v>
+        <v>-8.8977691962111027E-3</v>
       </c>
       <c r="D152" s="7">
-        <v>-49987806.290849768</v>
+        <v>-4497153.5194992963</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="B153" s="10">
-        <v>-473.83980763598453</v>
+        <v>103.02589241890659</v>
       </c>
       <c r="C153" s="11">
-        <v>-6.3966238865717062E-2</v>
+        <v>1.693736924983158E-2</v>
       </c>
       <c r="D153" s="7">
-        <v>-91174834.265893236</v>
+        <v>2634114.5044203945</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -8455,949 +10751,11 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
-    <sortCondition descending="1" ref="D2:D153"/>
+    <sortCondition ref="A2:A153"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E5E71C-7EBB-4C9C-B773-5969BD6E9FD8}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-106.14857163632129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-227.35853721447711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-352.75653261100251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-224.13010060412401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-230.0971239960891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-98.755067312671599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-61.726410633947133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-217.23882344212419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-203.22181405686109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE01D860-1B57-4BE8-8294-C6299CB4737F}">
-  <dimension ref="A1:L25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-729.41871019380051</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-1395.628447909839</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-1342.435362024695</v>
-      </c>
-      <c r="F3" s="3">
-        <v>-1933.781385196889</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-1284.6709749304059</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-6.5717020867647191E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>-0.12573922570536281</v>
-      </c>
-      <c r="J3" s="2">
-        <v>-0.1209467915570808</v>
-      </c>
-      <c r="K3" s="2">
-        <v>-0.17422414570458011</v>
-      </c>
-      <c r="L3" s="2">
-        <v>-0.11574250576206251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-933.26958596428813</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1694.803517960961</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-1917.0666175447391</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-2070.4851919233238</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-1466.821388478284</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-7.2792391695833514E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>-0.1321898874476036</v>
-      </c>
-      <c r="J4" s="2">
-        <v>-0.1495257814355295</v>
-      </c>
-      <c r="K4" s="2">
-        <v>-0.16149199690803259</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-0.1144079252808987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-152.67711616218091</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-197.09042375371061</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-172.1180552773094</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-245.94561501703811</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-37.22653794119924</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-3.0015158845858151E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-3.8746477040352063E-2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>-3.3837099489755218E-2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>-4.8351035752712601E-2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-7.3184539875612584E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-175.15783065712</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-215.37122796428139</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-185.9911459316836</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-279.67524978291573</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-62.340723113556123</v>
-      </c>
-      <c r="H8" s="2">
-        <v>-3.336958463898565E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>-4.1030700102840163E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>-3.5433456003566621E-2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>-5.3281357071209401E-2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-1.1876625946947489E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-205.14099517582139</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-256.56119100596788</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-244.71211879743259</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-343.05026213574638</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-121.3788665815746</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-3.6685206340820287E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-4.5880640400685069E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>-4.3761679933788433E-2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>-6.1347414449930637E-2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>-2.1706089327213959E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-262.38529259803357</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-287.82605308450269</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-292.04385353423282</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-412.90428187913039</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-193.6971081886231</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-4.2787478439414113E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>-4.6936133190672358E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>-4.7623934873524447E-2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>-6.7332787152481921E-2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>-3.1586415375400863E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-288.48865949967882</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-332.88974608425451</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-341.15665332089878</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-448.48717351485448</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-203.30842064544501</v>
-      </c>
-      <c r="H11" s="2">
-        <v>-4.242935280700677E-2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-4.8959624641534472E-2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>-5.017547667667055E-2</v>
-      </c>
-      <c r="K11" s="2">
-        <v>-6.5961069483565615E-2</v>
-      </c>
-      <c r="L11" s="2">
-        <v>-2.9901503661049489E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-57.229372323604373</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-220.43759004924229</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-244.3554266827696</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-399.92261144301119</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-58.216941235432387</v>
-      </c>
-      <c r="H14" s="2">
-        <v>-9.4951123477137189E-3</v>
-      </c>
-      <c r="I14" s="2">
-        <v>-3.6573521571081957E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>-4.0541808077274137E-2</v>
-      </c>
-      <c r="K14" s="2">
-        <v>-6.6352468529106368E-2</v>
-      </c>
-      <c r="L14" s="2">
-        <v>-9.6589631360098904E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-135.19775932184169</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-330.6125777003499</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-374.48859713328238</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-572.30316448357462</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-232.3302332024914</v>
-      </c>
-      <c r="H15" s="2">
-        <v>-2.0945309015344419E-2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>-5.1219655111360167E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>-5.8017081266910082E-2</v>
-      </c>
-      <c r="K15" s="2">
-        <v>-8.8663204854101618E-2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>-3.599341107753895E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3">
-        <v>-276.28966196951751</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-456.23810688202229</v>
-      </c>
-      <c r="E16" s="3">
-        <v>-539.84869764850191</v>
-      </c>
-      <c r="F16" s="3">
-        <v>-670.65673575999881</v>
-      </c>
-      <c r="G16" s="3">
-        <v>-406.71247446801863</v>
-      </c>
-      <c r="H16" s="2">
-        <v>-4.0002596869301299E-2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-6.6056431268240234E-2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>-7.8161990095861555E-2</v>
-      </c>
-      <c r="K16" s="2">
-        <v>-9.710103102319001E-2</v>
-      </c>
-      <c r="L16" s="2">
-        <v>-5.8885862908816138E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-333.60871189552017</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-559.34891927085664</v>
-      </c>
-      <c r="E17" s="3">
-        <v>-677.79717265749787</v>
-      </c>
-      <c r="F17" s="3">
-        <v>-856.88300801852347</v>
-      </c>
-      <c r="G17" s="3">
-        <v>-592.57831046401134</v>
-      </c>
-      <c r="H17" s="2">
-        <v>-4.390434371296692E-2</v>
-      </c>
-      <c r="I17" s="2">
-        <v>-7.3612727520243282E-2</v>
-      </c>
-      <c r="J17" s="2">
-        <v>-8.9201027955623902E-2</v>
-      </c>
-      <c r="K17" s="2">
-        <v>-0.1127694954130226</v>
-      </c>
-      <c r="L17" s="2">
-        <v>-7.7985858557582111E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3">
-        <v>-431.27343374780679</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-659.2463693715772</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-811.11769072433617</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1055.569872103636</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-788.31342255032632</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-4.9880547282630923E-2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>-7.6247612593663305E-2</v>
-      </c>
-      <c r="J18" s="2">
-        <v>-9.3812860143879351E-2</v>
-      </c>
-      <c r="K18" s="2">
-        <v>-0.1220858944591874</v>
-      </c>
-      <c r="L18" s="2">
-        <v>-9.1175346937896307E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>-748.389737532445</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-892.57359157943938</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-1117.2100384815169</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2853.2924633644429</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1560.746884784166</v>
-      </c>
-      <c r="H21" s="2">
-        <v>-2.8838735012005959E-2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>-3.4394770525775553E-2</v>
-      </c>
-      <c r="J21" s="2">
-        <v>-4.3050996875975467E-2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>-0.1099498578561862</v>
-      </c>
-      <c r="L21" s="2">
-        <v>-6.0142414538591933E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-990.0776854308242</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-1106.4102847124341</v>
-      </c>
-      <c r="E22" s="3">
-        <v>-1519.948596767819</v>
-      </c>
-      <c r="F22" s="3">
-        <v>-3215.439658600706</v>
-      </c>
-      <c r="G22" s="3">
-        <v>-2039.944353707815</v>
-      </c>
-      <c r="H22" s="2">
-        <v>-3.8999490451952057E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>-4.3581870361827257E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>-5.9871282485586493E-2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>-0.1266572412546185</v>
-      </c>
-      <c r="L22" s="2">
-        <v>-8.035408889184581E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3">
-        <v>-950.15809841460941</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-1161.741719920632</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1338.607023308698</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3161.1444647574499</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1985.359746360456</v>
-      </c>
-      <c r="H23" s="2">
-        <v>-3.8251889651288007E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>-4.6769917709326592E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>-5.3890240190006773E-2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>-0.12726276757462049</v>
-      </c>
-      <c r="L23" s="2">
-        <v>-7.992750055238762E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3">
-        <v>-811.9388331217524</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-1093.828115903998</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-1681.4280745412109</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-3168.3436590720671</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-2356.0429968884268</v>
-      </c>
-      <c r="H24" s="2">
-        <v>-3.0248401677185122E-2</v>
-      </c>
-      <c r="I24" s="2">
-        <v>-4.0750055134635033E-2</v>
-      </c>
-      <c r="J24" s="2">
-        <v>-6.2640816912856945E-2</v>
-      </c>
-      <c r="K24" s="2">
-        <v>-0.11803516193762729</v>
-      </c>
-      <c r="L24" s="2">
-        <v>-8.7773280487883021E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-1216.522215973459</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-1960.5732038567619</v>
-      </c>
-      <c r="E25" s="3">
-        <v>-2343.6173082079799</v>
-      </c>
-      <c r="F25" s="3">
-        <v>-3693.142765904759</v>
-      </c>
-      <c r="G25" s="3">
-        <v>-3113.2518850007041</v>
-      </c>
-      <c r="H25" s="2">
-        <v>-4.0389657135941233E-2</v>
-      </c>
-      <c r="I25" s="2">
-        <v>-6.5092834683930012E-2</v>
-      </c>
-      <c r="J25" s="2">
-        <v>-7.7810251463951152E-2</v>
-      </c>
-      <c r="K25" s="2">
-        <v>-0.12261573862801479</v>
-      </c>
-      <c r="L25" s="2">
-        <v>-0.1033628277083143</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>